--- a/EARReport/THC NII Report Template.xlsx
+++ b/EARReport/THC NII Report Template.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liushibao\Documents\EPPlus-test\EARReport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13FF9EE-77A6-4025-8757-3C050A7B20BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-750" yWindow="1935" windowWidth="19035" windowHeight="8595"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EaR summary" sheetId="1" r:id="rId1"/>
-    <sheet name="1st year projection" sheetId="2" r:id="rId2"/>
+    <sheet name="1st year projection" sheetId="14" r:id="rId2"/>
     <sheet name="2nd year projection" sheetId="8" r:id="rId3"/>
     <sheet name="3rd year projection" sheetId="9" r:id="rId4"/>
     <sheet name="4th year projection" sheetId="10" r:id="rId5"/>
@@ -19,30 +25,36 @@
     <sheet name="DISCLAIMER" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'1st year projection'!$1:$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Rate Sheet(info)'!$B$4:$W$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">DISCLAIMER!$A$1:$Q$64</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2nd year projection'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'3rd year projection'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'4th year projection'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'5th year projection'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'Assumptions'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'Assm-Reinvestment Rate(info)'!$1:$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Rate Sheet(info)'!$B$4:$W$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">Assumptions!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">DISCLAIMER!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'Rate Sheet(info)'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'DISCLAIMER'!$A$1:$Q$64</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">'DISCLAIMER'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>xhs</author>
     <author>Joey</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="1">
+    <comment ref="P4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0">
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R4" authorId="0">
+    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S4" authorId="0">
+    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T4" authorId="0">
+    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X4" authorId="0">
+    <comment ref="X4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="0">
+    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -352,7 +364,7 @@
     <t>Date</t>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="24"/>
@@ -362,7 +374,7 @@
       </rPr>
       <t>Risk Officer</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="26"/>
@@ -372,7 +384,7 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <i/>
         <sz val="16"/>
@@ -516,7 +528,7 @@
     <t xml:space="preserve">Book (9) </t>
   </si>
   <si>
-    <t xml:space="preserve">asset principal net liability principal. (9) month n - (9) month n-1 =  (8). This is a double entry item</t>
+    <t>asset principal net liability principal. (9) month n - (9) month n-1 =  (8). This is a double entry item</t>
   </si>
   <si>
     <t>NOTE</t>
@@ -585,15 +597,15 @@
     <t>Current Rate(%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fixed/
+    <t>Fixed/
 Adjustable</t>
   </si>
   <si>
-    <t xml:space="preserve">Margin
+    <t>Margin
 (%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reset 
+    <t>Reset 
 Freq</t>
   </si>
   <si>
@@ -651,23 +663,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;\-#,##0.00;\-"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00;\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="169" formatCode="&quot;\&quot;#,##0;&quot;\&quot;\-#,##0"/>
-    <numFmt numFmtId="170" formatCode="000000"/>
-    <numFmt numFmtId="171" formatCode="&quot;\&quot;#,##0.00;&quot;\&quot;\-#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000;[Red]\(#,##0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00;\-#,##0.00;\-"/>
+    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.00;\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="&quot;\&quot;#,##0;&quot;\&quot;\-#,##0"/>
+    <numFmt numFmtId="182" formatCode="000000"/>
+    <numFmt numFmtId="183" formatCode="&quot;\&quot;#,##0.00;&quot;\&quot;\-#,##0.00"/>
+    <numFmt numFmtId="184" formatCode="#,##0.0000;[Red]\(#,##0.0000\)"/>
   </numFmts>
-  <fonts count="71">
+  <fonts count="77">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -714,30 +726,30 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -747,7 +759,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -755,7 +767,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -788,7 +800,7 @@
       <b/>
       <sz val="26"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -796,7 +808,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -804,7 +816,7 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -812,7 +824,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -858,7 +870,7 @@
       <b/>
       <sz val="22"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -873,7 +885,7 @@
       <b/>
       <sz val="26"/>
       <color theme="0"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -901,7 +913,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1121,6 +1133,47 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color indexed="56"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color indexed="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color indexed="56"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="30">
@@ -1484,7 +1537,7 @@
   </borders>
   <cellStyleXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="15" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
@@ -1512,42 +1565,42 @@
     <xf numFmtId="0" fontId="40" fillId="23" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1"/>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="24" borderId="8"/>
     <xf numFmtId="0" fontId="44" fillId="25" borderId="9"/>
-    <xf numFmtId="170" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="183" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="8" borderId="0"/>
     <xf numFmtId="38" fontId="48" fillId="26" borderId="0"/>
@@ -1576,7 +1629,7 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="14"/>
     <xf numFmtId="0" fontId="55" fillId="28" borderId="0"/>
     <xf numFmtId="37" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="184" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
@@ -1660,559 +1713,384 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="15" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="13" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="19" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="20" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="28" applyProtection="1"/>
-    <xf numFmtId="169" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="24" applyFill="1" borderId="8" applyBorder="1" xfId="30" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="25" applyFill="1" borderId="9" applyBorder="1" xfId="31" applyProtection="1"/>
-    <xf numFmtId="170" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1"/>
-    <xf numFmtId="170" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1"/>
-    <xf numFmtId="170" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1"/>
-    <xf numFmtId="170" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1"/>
-    <xf numFmtId="170" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1"/>
-    <xf numFmtId="170" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1"/>
-    <xf numFmtId="170" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1"/>
-    <xf numFmtId="170" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="49" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="50" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="51" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="52" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="53" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="54" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="55" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="56" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="57" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="58" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="59" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="60" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="61" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="62" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="63" applyProtection="1"/>
-    <xf numFmtId="171" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="64" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="65" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="47" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="66" applyProtection="1"/>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="48" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="67" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="68" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="107">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="69" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="70" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="71" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="72" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="73" applyProtection="1"/>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="48" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="74" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="75" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="76" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="77" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="78" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="79" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="80" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="81" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="82" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="83" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="84" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="85" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="86" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="87" applyProtection="1"/>
-    <xf numFmtId="37" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="88" applyProtection="1"/>
-    <xf numFmtId="172" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="89" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="90" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="91" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="92" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="93" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="94" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="95" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="96" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="97" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="98" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="99" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="100" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="101" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="102" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="103" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="104" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="105" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="106" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="107" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="108" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="109" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="110" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="111" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="112" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="113" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="114" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="115" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="116" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="117" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="118" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="119" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="120" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="121" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="122" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="123" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="124" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="125" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="126" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="127" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="128" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="129" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="130" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="131" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="132" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="133" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="24" applyFill="1" borderId="15" applyBorder="1" xfId="134" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="135" applyProtection="1"/>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="136" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="137" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="138" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="139" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="140" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="141" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="142" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="143" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="144" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="145" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="146" applyProtection="1"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="147" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="148" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="149" applyProtection="1"/>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="150" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="151" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="28" fillId="4" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="28" fillId="4" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="152" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="153" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="154" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="155" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="156" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="157" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="158" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="67" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="159" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="160" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="68" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="161" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="162" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="69" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="163" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="100" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="100" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="100" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="28" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="135" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="28" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="28" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="28" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="135" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="32" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="100" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="51" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="51" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="38" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="164">
-    <cellStyle name="£ BP" xfId="1"/>
-    <cellStyle name="¥ JY" xfId="2"/>
-    <cellStyle name="20% - Accent1 2" xfId="3"/>
-    <cellStyle name="20% - Accent2 2" xfId="4"/>
-    <cellStyle name="20% - Accent3 2" xfId="5"/>
-    <cellStyle name="20% - Accent4 2" xfId="6"/>
-    <cellStyle name="20% - Accent5 2" xfId="7"/>
-    <cellStyle name="20% - Accent6 2" xfId="8"/>
-    <cellStyle name="40% - Accent1 2" xfId="9"/>
-    <cellStyle name="40% - Accent2 2" xfId="10"/>
-    <cellStyle name="40% - Accent3 2" xfId="11"/>
-    <cellStyle name="40% - Accent4 2" xfId="12"/>
-    <cellStyle name="40% - Accent5 2" xfId="13"/>
-    <cellStyle name="40% - Accent6 2" xfId="14"/>
-    <cellStyle name="60% - Accent1 2" xfId="15"/>
-    <cellStyle name="60% - Accent2 2" xfId="16"/>
-    <cellStyle name="60% - Accent3 2" xfId="17"/>
-    <cellStyle name="60% - Accent4 2" xfId="18"/>
-    <cellStyle name="60% - Accent5 2" xfId="19"/>
-    <cellStyle name="60% - Accent6 2" xfId="20"/>
-    <cellStyle name="Accent1 2" xfId="21"/>
-    <cellStyle name="Accent2 2" xfId="22"/>
-    <cellStyle name="Accent3 2" xfId="23"/>
-    <cellStyle name="Accent4 2" xfId="24"/>
-    <cellStyle name="Accent5 2" xfId="25"/>
-    <cellStyle name="Accent6 2" xfId="26"/>
-    <cellStyle name="Bad 2" xfId="27"/>
-    <cellStyle name="Bold/Border" xfId="28"/>
-    <cellStyle name="Bullet" xfId="29"/>
-    <cellStyle name="Calculation 2" xfId="30"/>
-    <cellStyle name="Check Cell 2" xfId="31"/>
-    <cellStyle name="Comma  - Style1" xfId="32"/>
-    <cellStyle name="Comma  - Style2" xfId="33"/>
-    <cellStyle name="Comma  - Style3" xfId="34"/>
-    <cellStyle name="Comma  - Style4" xfId="35"/>
-    <cellStyle name="Comma  - Style5" xfId="36"/>
-    <cellStyle name="Comma  - Style6" xfId="37"/>
-    <cellStyle name="Comma  - Style7" xfId="38"/>
-    <cellStyle name="Comma  - Style8" xfId="39"/>
-    <cellStyle name="Comma 10" xfId="40"/>
-    <cellStyle name="Comma 11" xfId="41"/>
-    <cellStyle name="Comma 12" xfId="42"/>
-    <cellStyle name="Comma 13" xfId="43"/>
-    <cellStyle name="Comma 14" xfId="44"/>
-    <cellStyle name="Comma 15" xfId="45"/>
-    <cellStyle name="Comma 16" xfId="46"/>
-    <cellStyle name="Comma 2" xfId="47"/>
-    <cellStyle name="Comma 2 2" xfId="48"/>
-    <cellStyle name="Comma 2 3" xfId="49"/>
-    <cellStyle name="Comma 3" xfId="50"/>
-    <cellStyle name="Comma 4" xfId="51"/>
-    <cellStyle name="Comma 5" xfId="52"/>
-    <cellStyle name="Comma 6" xfId="53"/>
-    <cellStyle name="Comma 7" xfId="54"/>
-    <cellStyle name="Comma 8" xfId="55"/>
-    <cellStyle name="Comma 9" xfId="56"/>
-    <cellStyle name="Currency 2" xfId="57"/>
-    <cellStyle name="Currency 2 2" xfId="58"/>
-    <cellStyle name="Currency 3" xfId="59"/>
-    <cellStyle name="Currency 4" xfId="60"/>
-    <cellStyle name="Currency 5" xfId="61"/>
-    <cellStyle name="Currency 6" xfId="62"/>
-    <cellStyle name="Currency 7" xfId="63"/>
-    <cellStyle name="Dash" xfId="64"/>
-    <cellStyle name="Explanatory Text 2" xfId="65"/>
-    <cellStyle name="Good 2" xfId="66"/>
-    <cellStyle name="Grey" xfId="67"/>
-    <cellStyle name="Header1" xfId="68"/>
-    <cellStyle name="Header2" xfId="69"/>
-    <cellStyle name="Heading 1 2" xfId="70"/>
-    <cellStyle name="Heading 2 2" xfId="71"/>
-    <cellStyle name="Heading 3 2" xfId="72"/>
-    <cellStyle name="Heading 4 2" xfId="73"/>
-    <cellStyle name="Input [yellow]" xfId="74"/>
-    <cellStyle name="Input 10" xfId="75"/>
-    <cellStyle name="Input 11" xfId="76"/>
-    <cellStyle name="Input 12" xfId="77"/>
-    <cellStyle name="Input 2" xfId="78"/>
-    <cellStyle name="Input 3" xfId="79"/>
-    <cellStyle name="Input 4" xfId="80"/>
-    <cellStyle name="Input 5" xfId="81"/>
-    <cellStyle name="Input 6" xfId="82"/>
-    <cellStyle name="Input 7" xfId="83"/>
-    <cellStyle name="Input 8" xfId="84"/>
-    <cellStyle name="Input 9" xfId="85"/>
-    <cellStyle name="Linked Cell 2" xfId="86"/>
-    <cellStyle name="Neutral 2" xfId="87"/>
-    <cellStyle name="no dec" xfId="88"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="89"/>
-    <cellStyle name="Normal 10" xfId="90"/>
-    <cellStyle name="Normal 11" xfId="91"/>
-    <cellStyle name="Normal 12" xfId="92"/>
-    <cellStyle name="Normal 13" xfId="93"/>
-    <cellStyle name="Normal 14" xfId="94"/>
-    <cellStyle name="Normal 15" xfId="95"/>
-    <cellStyle name="Normal 16" xfId="96"/>
-    <cellStyle name="Normal 17" xfId="97"/>
-    <cellStyle name="Normal 18" xfId="98"/>
-    <cellStyle name="Normal 19" xfId="99"/>
-    <cellStyle name="Normal 2" xfId="100"/>
-    <cellStyle name="Normal 2 10" xfId="101"/>
-    <cellStyle name="Normal 2 2" xfId="102"/>
-    <cellStyle name="Normal 2 2 2" xfId="103"/>
-    <cellStyle name="Normal 2 3" xfId="104"/>
-    <cellStyle name="Normal 20" xfId="105"/>
-    <cellStyle name="Normal 21" xfId="106"/>
-    <cellStyle name="Normal 22" xfId="107"/>
-    <cellStyle name="Normal 23" xfId="108"/>
-    <cellStyle name="Normal 24" xfId="109"/>
-    <cellStyle name="Normal 25" xfId="110"/>
-    <cellStyle name="Normal 26" xfId="111"/>
-    <cellStyle name="Normal 27" xfId="112"/>
-    <cellStyle name="Normal 28" xfId="113"/>
-    <cellStyle name="Normal 29" xfId="114"/>
-    <cellStyle name="Normal 3" xfId="115"/>
-    <cellStyle name="Normal 30" xfId="116"/>
-    <cellStyle name="Normal 31" xfId="117"/>
-    <cellStyle name="Normal 32" xfId="118"/>
-    <cellStyle name="Normal 33" xfId="119"/>
-    <cellStyle name="Normal 34" xfId="120"/>
-    <cellStyle name="Normal 35" xfId="121"/>
-    <cellStyle name="Normal 36" xfId="122"/>
-    <cellStyle name="Normal 37" xfId="123"/>
-    <cellStyle name="Normal 38" xfId="124"/>
-    <cellStyle name="Normal 39" xfId="125"/>
-    <cellStyle name="Normal 4" xfId="126"/>
-    <cellStyle name="Normal 5" xfId="127"/>
-    <cellStyle name="Normal 6" xfId="128"/>
-    <cellStyle name="Normal 7" xfId="129"/>
-    <cellStyle name="Normal 8" xfId="130"/>
-    <cellStyle name="Normal 9" xfId="131"/>
-    <cellStyle name="Note 2" xfId="132"/>
-    <cellStyle name="Note 3" xfId="133"/>
-    <cellStyle name="Output 2" xfId="134"/>
-    <cellStyle name="Percent" xfId="135" builtinId="5"/>
-    <cellStyle name="Percent [2]" xfId="136"/>
-    <cellStyle name="Percent 10" xfId="137"/>
-    <cellStyle name="Percent 11" xfId="138"/>
-    <cellStyle name="Percent 12" xfId="139"/>
-    <cellStyle name="Percent 2" xfId="140"/>
-    <cellStyle name="Percent 3" xfId="141"/>
-    <cellStyle name="Percent 4" xfId="142"/>
-    <cellStyle name="Percent 5" xfId="143"/>
-    <cellStyle name="Percent 6" xfId="144"/>
-    <cellStyle name="Percent 7" xfId="145"/>
-    <cellStyle name="Percent 8" xfId="146"/>
-    <cellStyle name="Percent 9" xfId="147"/>
-    <cellStyle name="PSChar" xfId="148"/>
-    <cellStyle name="PSDate" xfId="149"/>
-    <cellStyle name="PSDec" xfId="150"/>
-    <cellStyle name="PSHeading" xfId="151"/>
-    <cellStyle name="PSInt" xfId="152"/>
-    <cellStyle name="PSSpacer" xfId="153"/>
-    <cellStyle name="STYLE1" xfId="154"/>
-    <cellStyle name="STYLE1 2" xfId="155"/>
-    <cellStyle name="STYLE2" xfId="156"/>
-    <cellStyle name="STYLE3" xfId="157"/>
-    <cellStyle name="STYLE4" xfId="158"/>
-    <cellStyle name="STYLE5" xfId="159"/>
-    <cellStyle name="STYLE6" xfId="160"/>
-    <cellStyle name="Title 2" xfId="161"/>
-    <cellStyle name="Total 2" xfId="162"/>
-    <cellStyle name="Warning Text 2" xfId="163"/>
+    <cellStyle name="£ BP" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="¥ JY" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Bad 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Bold/Border" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Bullet" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Calculation 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Check Cell 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma  - Style1" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma  - Style2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma  - Style3" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma  - Style4" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma  - Style5" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma  - Style6" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma  - Style7" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma  - Style8" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Comma 10" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Comma 11" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Comma 12" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Comma 13" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Comma 14" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Comma 15" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Comma 16" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Comma 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Comma 2 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Comma 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Comma 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Comma 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Comma 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Comma 7" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Comma 8" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Comma 9" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Currency 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Currency 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Currency 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Currency 4" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Currency 5" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Currency 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Currency 7" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Dash" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Good 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Grey" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Header1" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Header2" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Heading 1 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Heading 2 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Heading 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Heading 4 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Input [yellow]" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Input 10" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Input 11" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Input 12" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Input 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Input 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Input 4" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Input 5" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Input 6" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Input 7" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Input 8" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Input 9" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Neutral 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="no dec" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal - Style1" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 10" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 11" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 12" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 13" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 14" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 15" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 16" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 17" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 18" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 19" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 2 10" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 2 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 20" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 21" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 22" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 23" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 24" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 25" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 26" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 27" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 28" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 29" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 30" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 31" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 32" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 33" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 34" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 35" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 36" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 37" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 38" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 39" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 4" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 5" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normal 6" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Normal 7" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Normal 8" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Normal 9" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Note 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Note 3" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Output 2" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Percent [2]" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Percent 10" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Percent 11" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Percent 12" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Percent 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Percent 3" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Percent 4" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Percent 5" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Percent 6" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Percent 7" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Percent 8" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Percent 9" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="PSChar" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="PSDate" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="PSDec" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="PSHeading" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="PSInt" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="PSSpacer" xfId="153" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="STYLE1" xfId="154" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="STYLE1 2" xfId="155" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="STYLE2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="STYLE3" xfId="157" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="STYLE4" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="STYLE5" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="STYLE6" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Title 2" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Total 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Warning Text 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="百分比" xfId="135" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2220,13 +2098,26 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2280,8 +2171,9 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2297,6 +2189,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2316,6 +2209,7 @@
               <a:srgbClr val="008000"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'EaR summary'!$C$60:$I$60</c:f>
@@ -2329,11 +2223,16 @@
             <c:numRef>
               <c:f>'EaR summary'!$C$61:$I$61</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6252-44C7-AC19-9FACF028D821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2351,6 +2250,7 @@
               <a:srgbClr val="00B800"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'EaR summary'!$C$60:$I$60</c:f>
@@ -2364,11 +2264,16 @@
             <c:numRef>
               <c:f>'EaR summary'!$C$62:$I$62</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6252-44C7-AC19-9FACF028D821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2386,6 +2291,7 @@
               <a:srgbClr val="3BFF3B"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'EaR summary'!$C$60:$I$60</c:f>
@@ -2399,11 +2305,16 @@
             <c:numRef>
               <c:f>'EaR summary'!$C$63:$I$63</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6252-44C7-AC19-9FACF028D821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2421,6 +2332,7 @@
               <a:srgbClr val="B3FFB3"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'EaR summary'!$C$60:$I$60</c:f>
@@ -2434,11 +2346,16 @@
             <c:numRef>
               <c:f>'EaR summary'!$C$64:$I$64</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6252-44C7-AC19-9FACF028D821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2456,6 +2373,7 @@
               <a:srgbClr val="C00000"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'EaR summary'!$C$60:$I$60</c:f>
@@ -2469,11 +2387,16 @@
             <c:numRef>
               <c:f>'EaR summary'!$C$65:$I$65</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6252-44C7-AC19-9FACF028D821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2491,6 +2414,7 @@
               <a:srgbClr val="FF2121"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'EaR summary'!$C$60:$I$60</c:f>
@@ -2504,11 +2428,16 @@
             <c:numRef>
               <c:f>'EaR summary'!$C$66:$I$66</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6252-44C7-AC19-9FACF028D821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2526,6 +2455,7 @@
               <a:srgbClr val="FF8F8F"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'EaR summary'!$C$60:$I$60</c:f>
@@ -2539,11 +2469,16 @@
             <c:numRef>
               <c:f>'EaR summary'!$C$67:$I$67</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6252-44C7-AC19-9FACF028D821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2561,6 +2496,7 @@
               <a:srgbClr val="0000FF"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'EaR summary'!$C$60:$I$60</c:f>
@@ -2574,11 +2510,16 @@
             <c:numRef>
               <c:f>'EaR summary'!$C$68:$I$68</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6252-44C7-AC19-9FACF028D821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2591,6 +2532,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'EaR summary'!$C$60:$I$60</c:f>
@@ -2604,11 +2546,16 @@
             <c:numRef>
               <c:f>'EaR summary'!$C$69:$I$69</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6252-44C7-AC19-9FACF028D821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -2621,6 +2568,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'EaR summary'!$C$60:$I$60</c:f>
@@ -2634,18 +2582,33 @@
             <c:numRef>
               <c:f>'EaR summary'!$C$70:$I$70</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6252-44C7-AC19-9FACF028D821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="81300864"/>
         <c:axId val="81319040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="10"/>
@@ -2673,13 +2636,28 @@
             <c:numRef>
               <c:f>'EaR summary'!$C$71:$I$71</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6252-44C7-AC19-9FACF028D821}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="81300864"/>
         <c:axId val="81319040"/>
       </c:lineChart>
@@ -2688,8 +2666,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -2705,7 +2686,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81319040"/>
@@ -2713,12 +2694,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="81319040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2743,6 +2726,8 @@
           </c:spPr>
         </c:minorGridlines>
         <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -2758,7 +2743,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81300864"/>
@@ -2784,7 +2769,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -2798,6 +2783,7 @@
           <c:h val="0.66562869641295863"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2812,12 +2798,13 @@
               <a:cs typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -2833,7 +2820,7 @@
           <a:cs typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2845,9 +2832,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2880,7 +2876,9 @@
           <c:y val="4.0100452559709107E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2896,19 +2894,45 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>12 mo</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'EaR summary'!$D$11:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Base Case</c:v>
+                  <c:v>Dn 200BP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dn 100BP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Up 100BP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Up 200BP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Up 300BP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Up 400BP </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Flattener</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ramp Up</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2922,6 +2946,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B075-4C78-B6E4-857CBAA02454}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2936,13 +2965,38 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'EaR summary'!$D$11:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Base Case</c:v>
+                  <c:v>Dn 200BP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dn 100BP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Up 100BP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Up 200BP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Up 300BP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Up 400BP </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Flattener</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ramp Up</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2956,7 +3010,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B075-4C78-B6E4-857CBAA02454}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="82659584"/>
         <c:axId val="82661376"/>
       </c:barChart>
@@ -2965,10 +3033,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr rot="-2700000" vert="horz"/>
@@ -2984,7 +3054,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82661376"/>
@@ -2993,16 +3063,20 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="82661376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -3018,7 +3092,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82659584"/>
@@ -3063,6 +3137,7 @@
           <c:h val="8.2854178111458621E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3077,12 +3152,13 @@
               <a:cs typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -3098,7 +3174,7 @@
           <a:cs typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3110,9 +3186,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3145,7 +3230,9 @@
           <c:y val="2.9387134688972052E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3160,6 +3247,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3266,7 +3354,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A81-4E3A-BE3F-F26855605B7F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="102723968"/>
         <c:axId val="102725888"/>
       </c:scatterChart>
@@ -3276,6 +3377,7 @@
           <c:orientation val="minMax"/>
           <c:max val="30"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:minorGridlines/>
         <c:title>
@@ -3301,9 +3403,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -3319,7 +3423,7 @@
                 <a:cs typeface="Tahoma"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="102725888"/>
@@ -3331,6 +3435,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
@@ -3357,9 +3462,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -3375,7 +3482,7 @@
                 <a:cs typeface="Tahoma"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="102723968"/>
@@ -3445,6 +3552,7 @@
           <c:h val="0.12195657361011709"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3459,12 +3567,13 @@
               <a:cs typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -3480,7 +3589,7 @@
           <a:cs typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3508,7 +3617,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1525683" name="Chart 5"/>
+        <xdr:cNvPr id="1525683" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3471700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3540,7 +3655,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1525684" name="Chart 6"/>
+        <xdr:cNvPr id="1525684" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4471700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3572,7 +3693,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1525685" name="THCLOGO"/>
+        <xdr:cNvPr id="1525685" name="THCLOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5471700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3581,7 +3708,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3604,14 +3731,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3645,7 +3772,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4050,7 +4183,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1567240" name="THCLOGO"/>
+        <xdr:cNvPr id="1567240" name="THCLOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008EA1700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4059,7 +4198,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4082,14 +4221,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4118,12 +4257,18 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="733641" name="THCLOGO"/>
+        <xdr:cNvPr id="2" name="THCLOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD52BD75-1A25-40B6-818E-3DAED6FB4575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4132,7 +4277,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4144,7 +4289,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="209550" y="0"/>
-          <a:ext cx="10963275" cy="609600"/>
+          <a:ext cx="11010900" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4155,14 +4300,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4196,7 +4341,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="THCLOGO"/>
+        <xdr:cNvPr id="2" name="THCLOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4205,7 +4356,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4228,14 +4379,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4269,7 +4420,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="THCLOGO"/>
+        <xdr:cNvPr id="2" name="THCLOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4278,7 +4435,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4301,14 +4458,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4342,7 +4499,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="THCLOGO"/>
+        <xdr:cNvPr id="2" name="THCLOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4351,7 +4514,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4374,14 +4537,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4415,7 +4578,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="THCLOGO"/>
+        <xdr:cNvPr id="2" name="THCLOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4424,7 +4593,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4447,14 +4616,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4488,7 +4657,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="747397" name="THCLOGO"/>
+        <xdr:cNvPr id="747397" name="THCLOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000085670B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4497,7 +4672,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4520,14 +4695,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4556,7 +4731,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 9"/>
+        <xdr:cNvPr id="4" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4593,7 +4774,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1670380" name="THCLOGO"/>
+        <xdr:cNvPr id="1670380" name="THCLOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000EC7C1900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4602,7 +4789,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4625,14 +4812,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4666,7 +4853,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="THCLOGO"/>
+        <xdr:cNvPr id="2" name="THCLOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4675,7 +4868,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4698,14 +4891,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4723,7 +4916,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4765,7 +4958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4797,9 +4990,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4831,6 +5042,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5006,969 +5235,961 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AW78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:M5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1" style="164"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1" style="164"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" style="164"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" style="197"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" style="165"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1" style="164"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1" style="164"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1" style="164"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" style="198"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1" style="164"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1" style="164"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1" style="164"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1" style="164"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1" style="164"/>
-    <col min="15" max="15" hidden="1" width="7.85546875" customWidth="1" style="164"/>
-    <col min="16" max="16" hidden="1" width="7.85546875" customWidth="1" style="164"/>
-    <col min="17" max="17" hidden="1" width="7.85546875" customWidth="1" style="197"/>
-    <col min="18" max="18" hidden="1" width="7.7109375" customWidth="1" style="197"/>
-    <col min="19" max="19" hidden="1" width="0.42578125" customWidth="1" style="197"/>
-    <col min="20" max="20" hidden="1" width="0.42578125" customWidth="1" style="197"/>
-    <col min="21" max="21" hidden="1" width="0.42578125" customWidth="1" style="197"/>
-    <col min="22" max="22" hidden="1" width="0.5703125" customWidth="1" style="197"/>
-    <col min="23" max="23" hidden="1" width="0.42578125" customWidth="1" style="197"/>
-    <col min="24" max="24" hidden="1" width="0.5703125" customWidth="1" style="197"/>
-    <col min="25" max="25" hidden="1" width="0.5703125" customWidth="1" style="197"/>
-    <col min="26" max="26" hidden="1" width="0.42578125" customWidth="1" style="197"/>
-    <col min="27" max="27" hidden="1" width="0.28515625" customWidth="1" style="197"/>
-    <col min="28" max="28" hidden="1" width="0.42578125" customWidth="1" style="197"/>
-    <col min="29" max="29" hidden="1" width="0.28515625" customWidth="1" style="197"/>
-    <col min="30" max="30" hidden="1" width="0.28515625" customWidth="1" style="197"/>
-    <col min="31" max="31" hidden="1" width="0.28515625" customWidth="1" style="197"/>
-    <col min="32" max="32" hidden="1" width="0.28515625" customWidth="1" style="197"/>
-    <col min="33" max="33" hidden="1" width="0.42578125" customWidth="1" style="197"/>
-    <col min="34" max="34" hidden="1" width="0.42578125" customWidth="1" style="197"/>
-    <col min="35" max="35" hidden="1" width="0" customWidth="1" style="197"/>
-    <col min="36" max="36" hidden="1" width="0" customWidth="1" style="197"/>
-    <col min="37" max="37" hidden="1" width="0" customWidth="1" style="197"/>
-    <col min="38" max="38" hidden="1" width="0" customWidth="1" style="164"/>
-    <col min="39" max="39" width="2.42578125" customWidth="1" style="164"/>
-    <col min="40" max="16384" width="9.140625" customWidth="1" style="164"/>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="13.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="35" customWidth="1"/>
+    <col min="10" max="12" width="13.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.75" style="1" customWidth="1"/>
+    <col min="15" max="16" width="7.875" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="7.875" style="34" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="34" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="0.375" style="34" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="0.625" style="34" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="0.375" style="34" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="0.625" style="34" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0.375" style="34" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="0.25" style="34" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="0.375" style="34" hidden="1" customWidth="1"/>
+    <col min="29" max="32" width="0.25" style="34" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="0.375" style="34" hidden="1" customWidth="1"/>
+    <col min="35" max="37" width="0" style="34" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="2.375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="9.125" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1">
-      <c r="E1" s="164"/>
-      <c r="AM1" s="164" t="s">
+    <row r="1" spans="1:49" ht="23.25" customHeight="1">
+      <c r="E1" s="1"/>
+      <c r="AM1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="23.25" customHeight="1">
-      <c r="E2" s="164"/>
-    </row>
-    <row r="3" ht="5.25" customHeight="1">
-      <c r="E3" s="164"/>
-    </row>
-    <row r="4" ht="26.25" customHeight="1" s="185" customFormat="1">
-      <c r="A4" s="199"/>
-      <c r="B4" s="258" t="s">
+    <row r="2" spans="1:49" ht="23.25" customHeight="1">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:49" ht="5.25" customHeight="1">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:49" s="22" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="258"/>
-      <c r="N4" s="199"/>
-      <c r="O4" s="199"/>
-      <c r="P4" s="199"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="228"/>
-      <c r="S4" s="228"/>
-      <c r="T4" s="228"/>
-      <c r="U4" s="228"/>
-      <c r="V4" s="228"/>
-      <c r="W4" s="228"/>
-      <c r="X4" s="228"/>
-      <c r="Y4" s="228"/>
-      <c r="Z4" s="229"/>
-      <c r="AA4" s="229"/>
-      <c r="AB4" s="229"/>
-      <c r="AC4" s="229"/>
-      <c r="AD4" s="229"/>
-      <c r="AE4" s="229"/>
-      <c r="AF4" s="229"/>
-      <c r="AG4" s="229"/>
-      <c r="AH4" s="229"/>
-      <c r="AI4" s="229"/>
-      <c r="AJ4" s="229"/>
-      <c r="AK4" s="229"/>
-    </row>
-    <row r="5" ht="24" customHeight="1">
-      <c r="A5" s="186"/>
-      <c r="B5" s="259" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+    </row>
+    <row r="5" spans="1:49" ht="24" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
-      <c r="F5" s="259"/>
-      <c r="G5" s="259"/>
-      <c r="H5" s="259"/>
-      <c r="I5" s="259"/>
-      <c r="J5" s="259"/>
-      <c r="K5" s="259"/>
-      <c r="L5" s="259"/>
-      <c r="M5" s="259"/>
-      <c r="N5" s="226"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="230"/>
-      <c r="R5" s="230"/>
-      <c r="S5" s="231"/>
-      <c r="T5" s="231"/>
-      <c r="U5" s="231"/>
-      <c r="V5" s="231"/>
-      <c r="W5" s="231"/>
-      <c r="X5" s="231"/>
-      <c r="Y5" s="231"/>
-      <c r="Z5" s="232"/>
-      <c r="AA5" s="232"/>
-      <c r="AB5" s="232"/>
-      <c r="AC5" s="232"/>
-      <c r="AD5" s="232"/>
-      <c r="AE5" s="232"/>
-      <c r="AF5" s="232"/>
-      <c r="AG5" s="232"/>
-      <c r="AH5" s="232"/>
-      <c r="AI5" s="233"/>
-    </row>
-    <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="200"/>
-      <c r="B6" s="201"/>
-      <c r="E6" s="200"/>
-      <c r="J6" s="171"/>
-    </row>
-    <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="202"/>
-      <c r="B7" s="238"/>
-      <c r="E7" s="164"/>
-      <c r="J7" s="197"/>
-    </row>
-    <row r="8" ht="12" customHeight="1">
-      <c r="A8" s="202"/>
-      <c r="E8" s="164"/>
-      <c r="J8" s="203"/>
-      <c r="T8" s="203"/>
-    </row>
-    <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="202"/>
-      <c r="B9" s="257" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="70"/>
+    </row>
+    <row r="6" spans="1:49" ht="17.25" customHeight="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="E6" s="37"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:49" ht="17.25" customHeight="1">
+      <c r="A7" s="39"/>
+      <c r="B7" s="75"/>
+      <c r="E7" s="1"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:49" ht="12" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="E8" s="1"/>
+      <c r="J8" s="40"/>
+      <c r="T8" s="40"/>
+    </row>
+    <row r="9" spans="1:49" ht="17.25" customHeight="1">
+      <c r="A9" s="39"/>
+      <c r="B9" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="257"/>
-      <c r="D9" s="257"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="257"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="237"/>
-    </row>
-    <row r="10" ht="3.75" customHeight="1">
-      <c r="A10" s="202"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="261"/>
-      <c r="I10" s="261"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="202"/>
-      <c r="B11" s="262"/>
-      <c r="C11" s="262"/>
-      <c r="D11" s="227" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="74"/>
+    </row>
+    <row r="10" spans="1:49" ht="3.75" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:49" ht="13.5" customHeight="1">
+      <c r="A11" s="39"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="227" t="s">
+      <c r="E11" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="227" t="s">
+      <c r="F11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="227" t="s">
+      <c r="G11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="227" t="s">
+      <c r="H11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="227" t="s">
+      <c r="I11" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="227" t="s">
+      <c r="J11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="227" t="s">
+      <c r="K11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="227" t="s">
+      <c r="L11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="227"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="202"/>
-      <c r="B12" s="263" t="s">
+      <c r="M11" s="64"/>
+    </row>
+    <row r="12" spans="1:49" ht="13.5" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="263"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="211"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="202"/>
-      <c r="B13" s="263" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+    </row>
+    <row r="13" spans="1:49" ht="13.5" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="263"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="213"/>
-      <c r="AL13" s="187"/>
-      <c r="AM13" s="187"/>
-      <c r="AN13" s="187"/>
-      <c r="AO13" s="187"/>
-      <c r="AP13" s="187"/>
-      <c r="AQ13" s="187"/>
-      <c r="AR13" s="187"/>
-      <c r="AS13" s="187"/>
-      <c r="AT13" s="187"/>
-      <c r="AU13" s="187"/>
-      <c r="AV13" s="187"/>
-      <c r="AW13" s="187"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="202"/>
-      <c r="B14" s="264" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="50"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+    </row>
+    <row r="14" spans="1:49" ht="13.5" customHeight="1">
+      <c r="A14" s="39"/>
+      <c r="B14" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="264"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="215"/>
-      <c r="N14" s="216"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="202"/>
-      <c r="B15" s="263" t="s">
+      <c r="C14" s="101"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
+    </row>
+    <row r="15" spans="1:49" ht="13.5" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="263"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="211"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="202"/>
-      <c r="B16" s="263" t="s">
+      <c r="C15" s="100"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+    </row>
+    <row r="16" spans="1:49" ht="13.5" customHeight="1">
+      <c r="A16" s="39"/>
+      <c r="B16" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="263"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="211"/>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211"/>
-      <c r="M16" s="213"/>
-    </row>
-    <row r="17" ht="8.25" customHeight="1">
-      <c r="A17" s="202"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="204"/>
-      <c r="M17" s="204"/>
-    </row>
-    <row r="18" ht="8.25" customHeight="1">
-      <c r="A18" s="202"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="204"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="202"/>
-      <c r="B19" s="257" t="s">
+      <c r="C16" s="100"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="1:16" ht="8.25" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+    </row>
+    <row r="18" spans="1:16" ht="8.25" customHeight="1">
+      <c r="A18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+    </row>
+    <row r="19" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="257"/>
-      <c r="D19" s="257"/>
-      <c r="E19" s="257"/>
-      <c r="F19" s="257"/>
-      <c r="G19" s="257"/>
-      <c r="H19" s="257"/>
-      <c r="I19" s="257"/>
-      <c r="J19" s="257"/>
-      <c r="K19" s="257"/>
-      <c r="L19" s="257"/>
-      <c r="M19" s="257"/>
-      <c r="N19" s="237"/>
-    </row>
-    <row r="20" ht="4.5" customHeight="1">
-      <c r="A20" s="202"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="260"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="260"/>
-      <c r="I20" s="260"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="204"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="217"/>
-      <c r="B21" s="262"/>
-      <c r="C21" s="262"/>
-      <c r="D21" s="227" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="74"/>
+    </row>
+    <row r="20" spans="1:16" ht="4.5" customHeight="1">
+      <c r="A20" s="39"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+    </row>
+    <row r="21" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A21" s="54"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="208" t="s">
+      <c r="E21" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="208" t="s">
+      <c r="F21" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="209" t="s">
+      <c r="G21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="209" t="s">
+      <c r="H21" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="209" t="s">
+      <c r="I21" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="209" t="s">
+      <c r="J21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="209" t="s">
+      <c r="K21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="209" t="s">
+      <c r="L21" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="227"/>
-      <c r="N21" s="197"/>
-      <c r="O21" s="197"/>
-      <c r="P21" s="197"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" s="197" customFormat="1">
-      <c r="A22" s="217"/>
-      <c r="B22" s="263" t="s">
+      <c r="M21" s="64"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A22" s="54"/>
+      <c r="B22" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="263"/>
-      <c r="D22" s="211"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="211"/>
-      <c r="K22" s="211"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="211"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1" s="197" customFormat="1">
-      <c r="A23" s="217"/>
-      <c r="B23" s="263" t="s">
+      <c r="C22" s="100"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+    </row>
+    <row r="23" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A23" s="54"/>
+      <c r="B23" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="263"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="211"/>
-      <c r="M23" s="213"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1" s="197" customFormat="1">
-      <c r="A24" s="217"/>
-      <c r="B24" s="264" t="s">
+      <c r="C23" s="100"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="50"/>
+    </row>
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A24" s="54"/>
+      <c r="B24" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="264"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="218"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="216"/>
-      <c r="K24" s="216"/>
-      <c r="L24" s="216"/>
-      <c r="M24" s="216"/>
-      <c r="N24" s="216"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1" s="197" customFormat="1">
-      <c r="A25" s="217"/>
-      <c r="B25" s="263" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+    </row>
+    <row r="25" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A25" s="54"/>
+      <c r="B25" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="263"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="211"/>
-      <c r="K25" s="211"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="211"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" s="197" customFormat="1">
-      <c r="A26" s="217"/>
-      <c r="B26" s="263" t="s">
+      <c r="C25" s="100"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+    </row>
+    <row r="26" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A26" s="54"/>
+      <c r="B26" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="263"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="211"/>
-      <c r="K26" s="211"/>
-      <c r="L26" s="211"/>
-      <c r="M26" s="213"/>
-    </row>
-    <row r="27" ht="11.25" customHeight="1" s="197" customFormat="1">
-      <c r="A27" s="217"/>
-      <c r="B27" s="204"/>
-      <c r="C27" s="204"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="204"/>
-      <c r="L27" s="204"/>
-      <c r="M27" s="204"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1" s="197" customFormat="1">
-      <c r="A28" s="217"/>
-      <c r="B28" s="257"/>
-      <c r="C28" s="257"/>
-      <c r="D28" s="257"/>
-      <c r="E28" s="257"/>
-      <c r="F28" s="257"/>
-      <c r="G28" s="257"/>
-      <c r="H28" s="257"/>
-      <c r="I28" s="257"/>
-      <c r="J28" s="257"/>
-      <c r="K28" s="257"/>
-      <c r="L28" s="257"/>
-      <c r="M28" s="257"/>
-      <c r="N28" s="237"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1" s="197" customFormat="1">
-      <c r="A29" s="217"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="205"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="208" t="s">
+      <c r="C26" s="100"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="50"/>
+    </row>
+    <row r="27" spans="1:16" s="34" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A27" s="54"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+    </row>
+    <row r="28" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A28" s="54"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="74"/>
+    </row>
+    <row r="29" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A29" s="54"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="208"/>
-      <c r="H29" s="208" t="s">
+      <c r="G29" s="45"/>
+      <c r="H29" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="219"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="204"/>
-      <c r="M29" s="204"/>
-    </row>
-    <row r="30" ht="13.5" customHeight="1" s="197" customFormat="1">
-      <c r="A30" s="217"/>
-      <c r="B30" s="263" t="s">
+      <c r="I29" s="56"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+    </row>
+    <row r="30" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A30" s="54"/>
+      <c r="B30" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="263"/>
-      <c r="D30" s="207"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="221">
+      <c r="C30" s="100"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58">
         <f>IF(E11="Base",E15,IF(F11="Base",F15,IF(G11="Base",G15,IF(H11="Base",H15,IF(I11="Base",I15,IF(J11="Base",J15,""))))))</f>
-      </c>
-      <c r="G30" s="222"/>
-      <c r="H30" s="223">
+        <v>0</v>
+      </c>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60">
         <f>IF(E11="Base",E25,IF(F11="Base",F25,IF(G11="Base",G25,IF(H11="Base",H25,IF(I11="Base",I25,IF(J11="Base",J25,""))))))</f>
-      </c>
-      <c r="I30" s="220"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="204"/>
-      <c r="L30" s="204"/>
-      <c r="M30" s="204"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1" s="197" customFormat="1">
-      <c r="A31" s="217"/>
-      <c r="B31" s="263" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+    </row>
+    <row r="31" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A31" s="54"/>
+      <c r="B31" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="263"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="221">
+      <c r="C31" s="100"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="58">
         <f>IF(E11="Base",E12,IF(F11="Base",F12,IF(G11="Base",G12,IF(H11="Base",H12,IF(I11="Base",I12,IF(J11="Base",J12,""))))))</f>
-      </c>
-      <c r="G31" s="224"/>
-      <c r="H31" s="223">
+        <v>0</v>
+      </c>
+      <c r="G31" s="61"/>
+      <c r="H31" s="60">
         <f>IF(E11="Base",E22,IF(F11="Base",F22,IF(G11="Base",G22,IF(H11="Base",H22,IF(I11="Base",I22,IF(J11="Base",J22,""))))))</f>
-      </c>
-      <c r="I31" s="212"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="204"/>
-      <c r="L31" s="204"/>
-      <c r="M31" s="204"/>
-    </row>
-    <row r="32" ht="13.5" customHeight="1" s="197" customFormat="1">
-      <c r="A32" s="217"/>
-      <c r="B32" s="263" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="49"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+    </row>
+    <row r="32" spans="1:16" s="34" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A32" s="54"/>
+      <c r="B32" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="263"/>
-      <c r="D32" s="210"/>
-      <c r="E32" s="212"/>
-      <c r="F32" s="225">
+      <c r="C32" s="100"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="62">
         <f>IF(E11="Up 200BP",E14,IF(F11="Up 200BP",F14,IF(G11="Up 200BP",G14,IF(H11="Up 200BP",H14,IF(I11="Up 200BP",I14,IF(J11="Up 200BP",J14,""))))))</f>
-      </c>
-      <c r="G32" s="225"/>
-      <c r="H32" s="225">
+        <v>0</v>
+      </c>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62">
         <f>IF(E11="Up 200BP",E24,IF(F11="Up 200BP",F24,IF(G11="Up 200BP",G24,IF(H11="Up 200BP",H24,IF(I11="Up 200BP",I24,IF(J11="Up 200BP",J24,""))))))</f>
-      </c>
-      <c r="I32" s="212"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="204"/>
-      <c r="L32" s="204"/>
-      <c r="M32" s="204"/>
-    </row>
-    <row r="33" ht="3.75" customHeight="1" s="197" customFormat="1">
-      <c r="A33" s="217"/>
-    </row>
-    <row r="34" ht="3" customHeight="1" s="197" customFormat="1">
-      <c r="A34" s="217"/>
-    </row>
-    <row r="35" ht="3.75" customHeight="1" s="197" customFormat="1">
-      <c r="A35" s="217"/>
-    </row>
-    <row r="36" ht="3.75" customHeight="1" s="197" customFormat="1">
-      <c r="A36" s="217"/>
-    </row>
-    <row r="37" ht="3" customHeight="1" s="197" customFormat="1">
-      <c r="B37" s="182"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="183"/>
-    </row>
-    <row r="38" ht="3.75" customHeight="1" s="197" customFormat="1">
-      <c r="B38" s="182"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="183"/>
-    </row>
-    <row r="39" ht="5.25" customHeight="1" s="197" customFormat="1">
-      <c r="B39" s="182"/>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="183"/>
-    </row>
-    <row r="40" ht="4.5" customHeight="1" s="197" customFormat="1">
-      <c r="E40" s="206"/>
-    </row>
-    <row r="41" ht="6" customHeight="1" s="197" customFormat="1">
-      <c r="E41" s="206"/>
-    </row>
-    <row r="42" ht="5.25" customHeight="1" s="197" customFormat="1">
-      <c r="E42" s="206"/>
-    </row>
-    <row r="43" ht="4.5" customHeight="1" s="197" customFormat="1">
-      <c r="E43" s="206"/>
-    </row>
-    <row r="44" ht="4.5" customHeight="1" s="197" customFormat="1">
-      <c r="E44" s="206"/>
-    </row>
-    <row r="45" ht="5.25" customHeight="1" s="197" customFormat="1">
-      <c r="E45" s="206"/>
-    </row>
-    <row r="46" ht="6.75" customHeight="1" s="197" customFormat="1">
-      <c r="E46" s="206"/>
-    </row>
-    <row r="47" ht="4.5" customHeight="1" s="197" customFormat="1">
-      <c r="E47" s="206"/>
-    </row>
-    <row r="48" ht="6.75" customHeight="1" s="197" customFormat="1">
-      <c r="E48" s="206"/>
-    </row>
-    <row r="49" ht="3.75" customHeight="1" s="197" customFormat="1">
-      <c r="E49" s="206"/>
-    </row>
-    <row r="50" ht="5.25" customHeight="1" s="197" customFormat="1">
-      <c r="E50" s="206"/>
-    </row>
-    <row r="51" ht="5.25" customHeight="1" s="197" customFormat="1">
-      <c r="E51" s="206"/>
-    </row>
-    <row r="52" ht="5.25" customHeight="1" s="197" customFormat="1">
-      <c r="E52" s="206"/>
-    </row>
-    <row r="53" ht="3" customHeight="1" s="197" customFormat="1">
-      <c r="E53" s="206"/>
-    </row>
-    <row r="54" ht="6.75" customHeight="1" s="197" customFormat="1">
-      <c r="E54" s="206"/>
-    </row>
-    <row r="55" ht="6" customHeight="1" s="197" customFormat="1">
-      <c r="E55" s="206"/>
-    </row>
-    <row r="56" ht="6.75" customHeight="1" s="197" customFormat="1">
-      <c r="E56" s="206"/>
-    </row>
-    <row r="57" ht="6" customHeight="1" s="197" customFormat="1">
-      <c r="E57" s="206"/>
-    </row>
-    <row r="58" ht="6" customHeight="1" s="197" customFormat="1">
-      <c r="E58" s="206"/>
-    </row>
-    <row r="59" ht="5.25" customHeight="1" s="197" customFormat="1">
-      <c r="E59" s="206"/>
-    </row>
-    <row r="60" ht="7.5" customHeight="1" s="197" customFormat="1">
-      <c r="E60" s="206"/>
-    </row>
-    <row r="61" ht="8.25" customHeight="1" s="197" customFormat="1">
-      <c r="B61" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="49"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" s="34" customFormat="1" ht="3.75" customHeight="1">
+      <c r="A33" s="54"/>
+    </row>
+    <row r="34" spans="1:10" s="34" customFormat="1" ht="3" customHeight="1">
+      <c r="A34" s="54"/>
+    </row>
+    <row r="35" spans="1:10" s="34" customFormat="1" ht="3.75" customHeight="1">
+      <c r="A35" s="54"/>
+    </row>
+    <row r="36" spans="1:10" s="34" customFormat="1" ht="3.75" customHeight="1">
+      <c r="A36" s="54"/>
+    </row>
+    <row r="37" spans="1:10" s="34" customFormat="1" ht="3" customHeight="1">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" s="34" customFormat="1" ht="3.75" customHeight="1">
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" s="34" customFormat="1" ht="5.25" customHeight="1">
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" s="34" customFormat="1" ht="4.5" customHeight="1">
+      <c r="E40" s="43"/>
+    </row>
+    <row r="41" spans="1:10" s="34" customFormat="1" ht="6" customHeight="1">
+      <c r="E41" s="43"/>
+    </row>
+    <row r="42" spans="1:10" s="34" customFormat="1" ht="5.25" customHeight="1">
+      <c r="E42" s="43"/>
+    </row>
+    <row r="43" spans="1:10" s="34" customFormat="1" ht="4.5" customHeight="1">
+      <c r="E43" s="43"/>
+    </row>
+    <row r="44" spans="1:10" s="34" customFormat="1" ht="4.5" customHeight="1">
+      <c r="E44" s="43"/>
+    </row>
+    <row r="45" spans="1:10" s="34" customFormat="1" ht="5.25" customHeight="1">
+      <c r="E45" s="43"/>
+    </row>
+    <row r="46" spans="1:10" s="34" customFormat="1" ht="6.75" customHeight="1">
+      <c r="E46" s="43"/>
+    </row>
+    <row r="47" spans="1:10" s="34" customFormat="1" ht="4.5" customHeight="1">
+      <c r="E47" s="43"/>
+    </row>
+    <row r="48" spans="1:10" s="34" customFormat="1" ht="6.75" customHeight="1">
+      <c r="E48" s="43"/>
+    </row>
+    <row r="49" spans="2:12" s="34" customFormat="1" ht="3.75" customHeight="1">
+      <c r="E49" s="43"/>
+    </row>
+    <row r="50" spans="2:12" s="34" customFormat="1" ht="5.25" customHeight="1">
+      <c r="E50" s="43"/>
+    </row>
+    <row r="51" spans="2:12" s="34" customFormat="1" ht="5.25" customHeight="1">
+      <c r="E51" s="43"/>
+    </row>
+    <row r="52" spans="2:12" s="34" customFormat="1" ht="5.25" customHeight="1">
+      <c r="E52" s="43"/>
+    </row>
+    <row r="53" spans="2:12" s="34" customFormat="1" ht="3" customHeight="1">
+      <c r="E53" s="43"/>
+    </row>
+    <row r="54" spans="2:12" s="34" customFormat="1" ht="6.75" customHeight="1">
+      <c r="E54" s="43"/>
+    </row>
+    <row r="55" spans="2:12" s="34" customFormat="1" ht="6" customHeight="1">
+      <c r="E55" s="43"/>
+    </row>
+    <row r="56" spans="2:12" s="34" customFormat="1" ht="6.75" customHeight="1">
+      <c r="E56" s="43"/>
+    </row>
+    <row r="57" spans="2:12" s="34" customFormat="1" ht="6" customHeight="1">
+      <c r="E57" s="43"/>
+    </row>
+    <row r="58" spans="2:12" s="34" customFormat="1" ht="6" customHeight="1">
+      <c r="E58" s="43"/>
+    </row>
+    <row r="59" spans="2:12" s="34" customFormat="1" ht="5.25" customHeight="1">
+      <c r="E59" s="43"/>
+    </row>
+    <row r="60" spans="2:12" s="34" customFormat="1" ht="7.5" customHeight="1">
+      <c r="E60" s="43"/>
+    </row>
+    <row r="61" spans="2:12" s="34" customFormat="1" ht="8.25" customHeight="1">
+      <c r="B61" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="234"/>
-      <c r="D61" s="234"/>
-      <c r="E61" s="234"/>
-      <c r="F61" s="234"/>
-      <c r="G61" s="234"/>
-      <c r="H61" s="234"/>
-      <c r="I61" s="234"/>
-      <c r="J61" s="234"/>
-      <c r="K61" s="234"/>
-      <c r="L61" s="234"/>
-    </row>
-    <row r="62" ht="6.75" customHeight="1" s="197" customFormat="1">
-      <c r="C62" s="234"/>
-      <c r="D62" s="234"/>
-      <c r="E62" s="234"/>
-      <c r="F62" s="234"/>
-      <c r="G62" s="234"/>
-      <c r="H62" s="234"/>
-      <c r="I62" s="234"/>
-      <c r="J62" s="234"/>
-      <c r="K62" s="234"/>
-      <c r="L62" s="234"/>
-    </row>
-    <row r="63" ht="6.75" customHeight="1" s="197" customFormat="1">
-      <c r="C63" s="234"/>
-      <c r="D63" s="234"/>
-      <c r="E63" s="234"/>
-      <c r="F63" s="234"/>
-      <c r="G63" s="234"/>
-      <c r="H63" s="234"/>
-      <c r="I63" s="234"/>
-      <c r="J63" s="234"/>
-      <c r="K63" s="234"/>
-      <c r="L63" s="234"/>
-    </row>
-    <row r="64" ht="7.5" customHeight="1" s="197" customFormat="1">
-      <c r="C64" s="234"/>
-      <c r="D64" s="234"/>
-      <c r="E64" s="234"/>
-      <c r="F64" s="234"/>
-      <c r="G64" s="234"/>
-      <c r="H64" s="234"/>
-      <c r="I64" s="234"/>
-      <c r="J64" s="234"/>
-      <c r="K64" s="234"/>
-      <c r="L64" s="234"/>
-    </row>
-    <row r="65" ht="9" customHeight="1" s="197" customFormat="1">
-      <c r="C65" s="234"/>
-      <c r="D65" s="234"/>
-      <c r="E65" s="234"/>
-      <c r="F65" s="234"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="234"/>
-      <c r="I65" s="234"/>
-      <c r="J65" s="234"/>
-      <c r="K65" s="234"/>
-      <c r="L65" s="234"/>
-    </row>
-    <row r="66" ht="6.75" customHeight="1" s="197" customFormat="1">
-      <c r="C66" s="234"/>
-      <c r="D66" s="234"/>
-      <c r="E66" s="234"/>
-      <c r="F66" s="234"/>
-      <c r="G66" s="234"/>
-      <c r="H66" s="234"/>
-      <c r="I66" s="234"/>
-      <c r="J66" s="234"/>
-      <c r="K66" s="234"/>
-      <c r="L66" s="234"/>
-    </row>
-    <row r="67" ht="5.25" customHeight="1">
-      <c r="B67" s="197"/>
-      <c r="C67" s="234"/>
-      <c r="D67" s="234"/>
-      <c r="E67" s="234"/>
-      <c r="F67" s="234"/>
-      <c r="G67" s="234"/>
-      <c r="H67" s="234"/>
-      <c r="I67" s="234"/>
-      <c r="J67" s="234"/>
-      <c r="K67" s="235"/>
-      <c r="L67" s="235"/>
-    </row>
-    <row r="68" ht="7.5" customHeight="1">
-      <c r="B68" s="197"/>
-      <c r="C68" s="234"/>
-      <c r="D68" s="234"/>
-      <c r="E68" s="234"/>
-      <c r="F68" s="234"/>
-      <c r="G68" s="234"/>
-      <c r="H68" s="234"/>
-      <c r="I68" s="234"/>
-      <c r="J68" s="234"/>
-      <c r="K68" s="235"/>
-      <c r="L68" s="235"/>
-    </row>
-    <row r="69" ht="6" customHeight="1">
-      <c r="B69" s="197"/>
-      <c r="C69" s="234"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="234"/>
-      <c r="F69" s="234"/>
-      <c r="G69" s="234"/>
-      <c r="H69" s="234"/>
-      <c r="I69" s="234"/>
-      <c r="J69" s="234"/>
-      <c r="K69" s="235"/>
-      <c r="L69" s="235"/>
-    </row>
-    <row r="70" ht="5.25" customHeight="1">
-      <c r="B70" s="197"/>
-      <c r="C70" s="234"/>
-      <c r="D70" s="234"/>
-      <c r="E70" s="234"/>
-      <c r="F70" s="234"/>
-      <c r="G70" s="234"/>
-      <c r="H70" s="234"/>
-      <c r="I70" s="234"/>
-      <c r="J70" s="234"/>
-      <c r="K70" s="235"/>
-      <c r="L70" s="235"/>
-    </row>
-    <row r="71" ht="9" customHeight="1">
-      <c r="B71" s="197"/>
-      <c r="C71" s="234"/>
-      <c r="D71" s="234"/>
-      <c r="E71" s="234"/>
-      <c r="F71" s="234"/>
-      <c r="G71" s="234"/>
-      <c r="H71" s="234"/>
-      <c r="I71" s="234"/>
-      <c r="J71" s="234"/>
-      <c r="K71" s="235"/>
-      <c r="L71" s="235"/>
-    </row>
-    <row r="72" ht="5.25" customHeight="1">
-      <c r="B72" s="197"/>
-      <c r="C72" s="234"/>
-      <c r="D72" s="234"/>
-      <c r="E72" s="234"/>
-      <c r="F72" s="234"/>
-      <c r="G72" s="234"/>
-      <c r="H72" s="234"/>
-      <c r="I72" s="234"/>
-      <c r="J72" s="234"/>
-      <c r="K72" s="235"/>
-      <c r="L72" s="235"/>
-    </row>
-    <row r="73" ht="5.25" customHeight="1">
-      <c r="B73" s="197"/>
-      <c r="C73" s="234"/>
-      <c r="D73" s="234"/>
-      <c r="E73" s="234"/>
-      <c r="F73" s="234"/>
-      <c r="G73" s="234"/>
-      <c r="H73" s="234"/>
-      <c r="I73" s="234"/>
-      <c r="J73" s="234"/>
-      <c r="K73" s="235"/>
-      <c r="L73" s="235"/>
-    </row>
-    <row r="74" ht="3.75" customHeight="1">
-      <c r="B74" s="197"/>
-      <c r="C74" s="234"/>
-      <c r="D74" s="234"/>
-      <c r="E74" s="234"/>
-      <c r="F74" s="234"/>
-      <c r="G74" s="234"/>
-      <c r="H74" s="234"/>
-      <c r="I74" s="234"/>
-      <c r="J74" s="234"/>
-      <c r="K74" s="235"/>
-      <c r="L74" s="235"/>
-    </row>
-    <row r="75" hidden="1">
-      <c r="C75" s="235"/>
-      <c r="D75" s="234"/>
-      <c r="E75" s="235"/>
-      <c r="F75" s="235"/>
-      <c r="G75" s="235"/>
-      <c r="H75" s="235"/>
-      <c r="I75" s="236"/>
-      <c r="J75" s="235"/>
-      <c r="K75" s="235"/>
-      <c r="L75" s="235"/>
-    </row>
-    <row r="76" hidden="1">
-      <c r="C76" s="235"/>
-      <c r="D76" s="234"/>
-      <c r="E76" s="235"/>
-      <c r="F76" s="235"/>
-      <c r="G76" s="235"/>
-      <c r="H76" s="235"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="235"/>
-      <c r="K76" s="235"/>
-      <c r="L76" s="235"/>
-    </row>
-    <row r="77">
-      <c r="C77" s="235"/>
-      <c r="D77" s="234"/>
-      <c r="E77" s="235"/>
-      <c r="F77" s="235"/>
-      <c r="G77" s="235"/>
-      <c r="H77" s="235"/>
-      <c r="I77" s="236"/>
-      <c r="J77" s="235"/>
-      <c r="K77" s="235"/>
-      <c r="L77" s="235"/>
-    </row>
-    <row r="78">
-      <c r="C78" s="235"/>
-      <c r="D78" s="234"/>
-      <c r="E78" s="235"/>
-      <c r="F78" s="235"/>
-      <c r="G78" s="235"/>
-      <c r="H78" s="235"/>
-      <c r="I78" s="236"/>
-      <c r="J78" s="235"/>
-      <c r="K78" s="235"/>
-      <c r="L78" s="235"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+    </row>
+    <row r="62" spans="2:12" s="34" customFormat="1" ht="6.75" customHeight="1">
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+    </row>
+    <row r="63" spans="2:12" s="34" customFormat="1" ht="6.75" customHeight="1">
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+    </row>
+    <row r="64" spans="2:12" s="34" customFormat="1" ht="7.5" customHeight="1">
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+    </row>
+    <row r="65" spans="2:12" s="34" customFormat="1" ht="9" customHeight="1">
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+    </row>
+    <row r="66" spans="2:12" s="34" customFormat="1" ht="6.75" customHeight="1">
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
+      <c r="L66" s="71"/>
+    </row>
+    <row r="67" spans="2:12" ht="5.25" customHeight="1">
+      <c r="B67" s="34"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
+    </row>
+    <row r="68" spans="2:12" ht="7.5" customHeight="1">
+      <c r="B68" s="34"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+    </row>
+    <row r="69" spans="2:12" ht="6" customHeight="1">
+      <c r="B69" s="34"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="72"/>
+    </row>
+    <row r="70" spans="2:12" ht="5.25" customHeight="1">
+      <c r="B70" s="34"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+    </row>
+    <row r="71" spans="2:12" ht="9" customHeight="1">
+      <c r="B71" s="34"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+    </row>
+    <row r="72" spans="2:12" ht="5.25" customHeight="1">
+      <c r="B72" s="34"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+    </row>
+    <row r="73" spans="2:12" ht="5.25" customHeight="1">
+      <c r="B73" s="34"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+    </row>
+    <row r="74" spans="2:12" ht="3.75" customHeight="1">
+      <c r="B74" s="34"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="72"/>
+    </row>
+    <row r="75" spans="2:12" hidden="1">
+      <c r="C75" s="72"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="72"/>
+    </row>
+    <row r="76" spans="2:12" hidden="1">
+      <c r="C76" s="72"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72"/>
+      <c r="L76" s="72"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="C77" s="72"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="C78" s="72"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="72"/>
+      <c r="L78" s="72"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="24">
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="B21:C21"/>
@@ -6000,1014 +6221,944 @@
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:A220"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="21.125" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
     <col min="16" max="16" width="1" customWidth="1"/>
-    <col min="17" max="17" width="1.28515625" customWidth="1"/>
+    <col min="17" max="17" width="1.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" s="189" customFormat="1"/>
-    <row r="2" ht="27" customHeight="1" s="189" customFormat="1"/>
-    <row r="3" s="189" customFormat="1"/>
-    <row r="4" s="189" customFormat="1"/>
-    <row r="5" s="189" customFormat="1"/>
-    <row r="6" s="189" customFormat="1"/>
-    <row r="7" s="189" customFormat="1"/>
-    <row r="8" s="189" customFormat="1"/>
-    <row r="9" s="189" customFormat="1"/>
-    <row r="10" s="189" customFormat="1"/>
-    <row r="11" s="189" customFormat="1"/>
-    <row r="12" s="189" customFormat="1"/>
-    <row r="13" s="189" customFormat="1"/>
-    <row r="14" s="189" customFormat="1"/>
-    <row r="15" s="189" customFormat="1"/>
-    <row r="16" s="189" customFormat="1"/>
-    <row r="17" s="189" customFormat="1"/>
-    <row r="18" s="189" customFormat="1"/>
-    <row r="19" s="189" customFormat="1"/>
-    <row r="20" s="189" customFormat="1"/>
-    <row r="21" s="189" customFormat="1"/>
-    <row r="22" s="189" customFormat="1"/>
-    <row r="23" s="189" customFormat="1"/>
-    <row r="24" s="189" customFormat="1"/>
-    <row r="25" s="189" customFormat="1"/>
-    <row r="26" s="189" customFormat="1"/>
-    <row r="27" s="189" customFormat="1"/>
-    <row r="28" s="189" customFormat="1"/>
-    <row r="29" s="189" customFormat="1"/>
-    <row r="30" s="189" customFormat="1"/>
-    <row r="31" s="189" customFormat="1"/>
-    <row r="32" s="189" customFormat="1"/>
-    <row r="33" s="189" customFormat="1"/>
-    <row r="34" s="189" customFormat="1"/>
-    <row r="35" s="189" customFormat="1"/>
-    <row r="36" s="189" customFormat="1"/>
-    <row r="37" s="189" customFormat="1"/>
-    <row r="38" s="189" customFormat="1"/>
-    <row r="39" ht="12" customHeight="1" s="189" customFormat="1"/>
-    <row r="40" hidden="1" s="189" customFormat="1"/>
-    <row r="41" hidden="1" s="189" customFormat="1"/>
-    <row r="42" hidden="1" s="189" customFormat="1"/>
-    <row r="43" hidden="1" ht="19.5" customHeight="1" s="189" customFormat="1"/>
-    <row r="44" s="189" customFormat="1"/>
-    <row r="45" s="189" customFormat="1"/>
-    <row r="46" s="189" customFormat="1"/>
-    <row r="47" ht="18.75" customHeight="1" s="189" customFormat="1"/>
-    <row r="48" s="189" customFormat="1"/>
-    <row r="49" s="189" customFormat="1"/>
-    <row r="50" s="189" customFormat="1"/>
-    <row r="51" s="189" customFormat="1"/>
-    <row r="52" s="189" customFormat="1"/>
-    <row r="53" s="189" customFormat="1"/>
-    <row r="54" s="189" customFormat="1"/>
-    <row r="55" s="189" customFormat="1"/>
-    <row r="56" ht="53.25" customHeight="1" s="189" customFormat="1"/>
-    <row r="57" s="189" customFormat="1"/>
-    <row r="58" s="189" customFormat="1"/>
-    <row r="59" s="189" customFormat="1"/>
-    <row r="60" s="189" customFormat="1"/>
-    <row r="61" s="189" customFormat="1"/>
-    <row r="62" s="189" customFormat="1"/>
-    <row r="63" s="189" customFormat="1"/>
-    <row r="64" s="189" customFormat="1"/>
-    <row r="65" s="189" customFormat="1"/>
-    <row r="66" s="189" customFormat="1"/>
-    <row r="67" s="189" customFormat="1"/>
-    <row r="68" s="189" customFormat="1"/>
-    <row r="69" s="189" customFormat="1"/>
-    <row r="70" s="189" customFormat="1"/>
-    <row r="71" s="189" customFormat="1"/>
-    <row r="72" s="189" customFormat="1"/>
-    <row r="73" s="189" customFormat="1"/>
-    <row r="74" s="189" customFormat="1"/>
-    <row r="75" s="189" customFormat="1"/>
-    <row r="76" s="189" customFormat="1"/>
-    <row r="77" s="189" customFormat="1"/>
-    <row r="78" s="189" customFormat="1"/>
-    <row r="79" s="189" customFormat="1"/>
-    <row r="80" s="189" customFormat="1"/>
-    <row r="81" s="189" customFormat="1"/>
-    <row r="82" s="189" customFormat="1"/>
-    <row r="83" s="189" customFormat="1"/>
-    <row r="84" s="189" customFormat="1"/>
-    <row r="85" s="189" customFormat="1"/>
-    <row r="86" s="189" customFormat="1"/>
-    <row r="87" s="189" customFormat="1"/>
-    <row r="88" s="189" customFormat="1"/>
-    <row r="89" s="189" customFormat="1"/>
-    <row r="90" s="189" customFormat="1"/>
-    <row r="91" s="189" customFormat="1"/>
-    <row r="92" s="189" customFormat="1"/>
-    <row r="93" s="189" customFormat="1"/>
-    <row r="94" s="189" customFormat="1"/>
-    <row r="95" s="189" customFormat="1"/>
-    <row r="96" s="189" customFormat="1"/>
-    <row r="97" s="189" customFormat="1"/>
-    <row r="98" s="189" customFormat="1"/>
-    <row r="99" s="189" customFormat="1"/>
-    <row r="100" s="189" customFormat="1"/>
-    <row r="101" s="189" customFormat="1"/>
-    <row r="102" s="189" customFormat="1"/>
-    <row r="103" s="189" customFormat="1"/>
-    <row r="104" s="189" customFormat="1"/>
-    <row r="105" s="189" customFormat="1"/>
-    <row r="106" s="189" customFormat="1"/>
-    <row r="107" s="189" customFormat="1"/>
-    <row r="108" s="189" customFormat="1"/>
-    <row r="109" s="189" customFormat="1"/>
-    <row r="110" s="189" customFormat="1"/>
-    <row r="111" s="189" customFormat="1"/>
-    <row r="112" s="189" customFormat="1"/>
-    <row r="113" s="189" customFormat="1"/>
-    <row r="114" s="189" customFormat="1"/>
-    <row r="115" s="189" customFormat="1"/>
-    <row r="116" s="189" customFormat="1"/>
-    <row r="117" s="189" customFormat="1"/>
-    <row r="118" s="189" customFormat="1"/>
-    <row r="119" s="189" customFormat="1"/>
-    <row r="120" s="189" customFormat="1"/>
-    <row r="121" s="189" customFormat="1"/>
-    <row r="122" s="189" customFormat="1"/>
-    <row r="123" s="189" customFormat="1"/>
-    <row r="124" s="189" customFormat="1"/>
-    <row r="125" s="189" customFormat="1"/>
-    <row r="126" s="189" customFormat="1"/>
-    <row r="127" s="189" customFormat="1"/>
-    <row r="128" s="189" customFormat="1"/>
-    <row r="129" s="189" customFormat="1"/>
-    <row r="130" s="189" customFormat="1"/>
-    <row r="131" s="189" customFormat="1"/>
-    <row r="132" s="189" customFormat="1"/>
-    <row r="133" s="189" customFormat="1"/>
-    <row r="134" s="189" customFormat="1"/>
-    <row r="135" s="189" customFormat="1"/>
-    <row r="136" s="189" customFormat="1"/>
-    <row r="137" s="189" customFormat="1"/>
-    <row r="138" s="189" customFormat="1"/>
-    <row r="139" s="189" customFormat="1"/>
-    <row r="140" s="189" customFormat="1"/>
-    <row r="141" s="189" customFormat="1"/>
-    <row r="142" s="189" customFormat="1"/>
-    <row r="143" s="189" customFormat="1"/>
-    <row r="144" s="189" customFormat="1"/>
-    <row r="145" s="189" customFormat="1"/>
-    <row r="146" s="189" customFormat="1"/>
-    <row r="147" s="189" customFormat="1"/>
-    <row r="148" s="189" customFormat="1"/>
-    <row r="149" s="189" customFormat="1"/>
-    <row r="150" s="189" customFormat="1"/>
-    <row r="151" s="189" customFormat="1"/>
-    <row r="152" s="189" customFormat="1"/>
-    <row r="153" s="189" customFormat="1"/>
-    <row r="154" s="189" customFormat="1"/>
-    <row r="155" s="189" customFormat="1"/>
-    <row r="156" s="189" customFormat="1"/>
-    <row r="157" s="189" customFormat="1"/>
-    <row r="158" s="189" customFormat="1"/>
-    <row r="159" s="189" customFormat="1"/>
-    <row r="160" s="189" customFormat="1"/>
-    <row r="161" s="189" customFormat="1"/>
-    <row r="162" s="189" customFormat="1"/>
-    <row r="163" s="189" customFormat="1"/>
-    <row r="164" s="189" customFormat="1"/>
-    <row r="165" s="189" customFormat="1"/>
-    <row r="166" s="189" customFormat="1"/>
-    <row r="167" s="189" customFormat="1"/>
-    <row r="168" s="189" customFormat="1"/>
-    <row r="169" s="189" customFormat="1"/>
-    <row r="170" s="189" customFormat="1"/>
-    <row r="171" s="189" customFormat="1"/>
-    <row r="172" s="189" customFormat="1"/>
-    <row r="173" s="189" customFormat="1"/>
-    <row r="174" s="189" customFormat="1"/>
-    <row r="175" s="189" customFormat="1"/>
-    <row r="176" s="189" customFormat="1"/>
-    <row r="177" s="189" customFormat="1"/>
-    <row r="178" s="189" customFormat="1"/>
-    <row r="179" s="189" customFormat="1"/>
-    <row r="180" s="189" customFormat="1"/>
-    <row r="181" s="189" customFormat="1"/>
-    <row r="182" s="189" customFormat="1"/>
-    <row r="183" s="189" customFormat="1"/>
-    <row r="184" s="189" customFormat="1"/>
-    <row r="185" s="189" customFormat="1"/>
-    <row r="186" s="189" customFormat="1"/>
-    <row r="187" s="189" customFormat="1"/>
-    <row r="188" s="189" customFormat="1"/>
-    <row r="189" s="189" customFormat="1"/>
-    <row r="190" s="189" customFormat="1"/>
-    <row r="191" s="189" customFormat="1"/>
-    <row r="192" s="189" customFormat="1"/>
-    <row r="193" s="189" customFormat="1"/>
-    <row r="194" s="189" customFormat="1"/>
-    <row r="195" s="189" customFormat="1"/>
-    <row r="196" s="189" customFormat="1"/>
-    <row r="197" s="189" customFormat="1"/>
-    <row r="198" s="189" customFormat="1"/>
-    <row r="199" s="189" customFormat="1"/>
-    <row r="200" s="189" customFormat="1"/>
-    <row r="201" s="189" customFormat="1"/>
-    <row r="202" s="189" customFormat="1"/>
-    <row r="203" s="189" customFormat="1"/>
-    <row r="204" s="189" customFormat="1"/>
-    <row r="205" s="189" customFormat="1"/>
-    <row r="206" s="189" customFormat="1"/>
-    <row r="207" s="189" customFormat="1"/>
-    <row r="208" s="189" customFormat="1"/>
-    <row r="209" s="189" customFormat="1"/>
-    <row r="210" s="189" customFormat="1"/>
-    <row r="211" s="189" customFormat="1"/>
-    <row r="212" s="189" customFormat="1"/>
-    <row r="213" s="189" customFormat="1"/>
-    <row r="214" s="189" customFormat="1"/>
-    <row r="215" s="189" customFormat="1"/>
-    <row r="216" s="189" customFormat="1"/>
-    <row r="217" s="189" customFormat="1"/>
-    <row r="218" s="189" customFormat="1"/>
-    <row r="219" s="189" customFormat="1"/>
-    <row r="220" s="189" customFormat="1"/>
+    <row r="1" s="26" customFormat="1" ht="46.5" customHeight="1"/>
+    <row r="2" s="26" customFormat="1" ht="27" customHeight="1"/>
+    <row r="3" s="26" customFormat="1"/>
+    <row r="4" s="26" customFormat="1"/>
+    <row r="5" s="26" customFormat="1"/>
+    <row r="6" s="26" customFormat="1"/>
+    <row r="7" s="26" customFormat="1"/>
+    <row r="8" s="26" customFormat="1"/>
+    <row r="9" s="26" customFormat="1"/>
+    <row r="10" s="26" customFormat="1"/>
+    <row r="11" s="26" customFormat="1"/>
+    <row r="12" s="26" customFormat="1"/>
+    <row r="13" s="26" customFormat="1"/>
+    <row r="14" s="26" customFormat="1"/>
+    <row r="15" s="26" customFormat="1"/>
+    <row r="16" s="26" customFormat="1"/>
+    <row r="17" s="26" customFormat="1"/>
+    <row r="18" s="26" customFormat="1"/>
+    <row r="19" s="26" customFormat="1"/>
+    <row r="20" s="26" customFormat="1"/>
+    <row r="21" s="26" customFormat="1"/>
+    <row r="22" s="26" customFormat="1"/>
+    <row r="23" s="26" customFormat="1"/>
+    <row r="24" s="26" customFormat="1"/>
+    <row r="25" s="26" customFormat="1"/>
+    <row r="26" s="26" customFormat="1"/>
+    <row r="27" s="26" customFormat="1"/>
+    <row r="28" s="26" customFormat="1"/>
+    <row r="29" s="26" customFormat="1"/>
+    <row r="30" s="26" customFormat="1"/>
+    <row r="31" s="26" customFormat="1"/>
+    <row r="32" s="26" customFormat="1"/>
+    <row r="33" s="26" customFormat="1"/>
+    <row r="34" s="26" customFormat="1"/>
+    <row r="35" s="26" customFormat="1"/>
+    <row r="36" s="26" customFormat="1"/>
+    <row r="37" s="26" customFormat="1"/>
+    <row r="38" s="26" customFormat="1"/>
+    <row r="39" s="26" customFormat="1" ht="12" customHeight="1"/>
+    <row r="40" s="26" customFormat="1" hidden="1"/>
+    <row r="41" s="26" customFormat="1" hidden="1"/>
+    <row r="42" s="26" customFormat="1" hidden="1"/>
+    <row r="43" s="26" customFormat="1" ht="19.5" hidden="1" customHeight="1"/>
+    <row r="44" s="26" customFormat="1"/>
+    <row r="45" s="26" customFormat="1"/>
+    <row r="46" s="26" customFormat="1"/>
+    <row r="47" s="26" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="48" s="26" customFormat="1"/>
+    <row r="49" s="26" customFormat="1"/>
+    <row r="50" s="26" customFormat="1"/>
+    <row r="51" s="26" customFormat="1"/>
+    <row r="52" s="26" customFormat="1"/>
+    <row r="53" s="26" customFormat="1"/>
+    <row r="54" s="26" customFormat="1"/>
+    <row r="55" s="26" customFormat="1"/>
+    <row r="56" s="26" customFormat="1" ht="53.25" customHeight="1"/>
+    <row r="57" s="26" customFormat="1"/>
+    <row r="58" s="26" customFormat="1"/>
+    <row r="59" s="26" customFormat="1"/>
+    <row r="60" s="26" customFormat="1"/>
+    <row r="61" s="26" customFormat="1"/>
+    <row r="62" s="26" customFormat="1"/>
+    <row r="63" s="26" customFormat="1"/>
+    <row r="64" s="26" customFormat="1"/>
+    <row r="65" s="26" customFormat="1"/>
+    <row r="66" s="26" customFormat="1"/>
+    <row r="67" s="26" customFormat="1"/>
+    <row r="68" s="26" customFormat="1"/>
+    <row r="69" s="26" customFormat="1"/>
+    <row r="70" s="26" customFormat="1"/>
+    <row r="71" s="26" customFormat="1"/>
+    <row r="72" s="26" customFormat="1"/>
+    <row r="73" s="26" customFormat="1"/>
+    <row r="74" s="26" customFormat="1"/>
+    <row r="75" s="26" customFormat="1"/>
+    <row r="76" s="26" customFormat="1"/>
+    <row r="77" s="26" customFormat="1"/>
+    <row r="78" s="26" customFormat="1"/>
+    <row r="79" s="26" customFormat="1"/>
+    <row r="80" s="26" customFormat="1"/>
+    <row r="81" s="26" customFormat="1"/>
+    <row r="82" s="26" customFormat="1"/>
+    <row r="83" s="26" customFormat="1"/>
+    <row r="84" s="26" customFormat="1"/>
+    <row r="85" s="26" customFormat="1"/>
+    <row r="86" s="26" customFormat="1"/>
+    <row r="87" s="26" customFormat="1"/>
+    <row r="88" s="26" customFormat="1"/>
+    <row r="89" s="26" customFormat="1"/>
+    <row r="90" s="26" customFormat="1"/>
+    <row r="91" s="26" customFormat="1"/>
+    <row r="92" s="26" customFormat="1"/>
+    <row r="93" s="26" customFormat="1"/>
+    <row r="94" s="26" customFormat="1"/>
+    <row r="95" s="26" customFormat="1"/>
+    <row r="96" s="26" customFormat="1"/>
+    <row r="97" s="26" customFormat="1"/>
+    <row r="98" s="26" customFormat="1"/>
+    <row r="99" s="26" customFormat="1"/>
+    <row r="100" s="26" customFormat="1"/>
+    <row r="101" s="26" customFormat="1"/>
+    <row r="102" s="26" customFormat="1"/>
+    <row r="103" s="26" customFormat="1"/>
+    <row r="104" s="26" customFormat="1"/>
+    <row r="105" s="26" customFormat="1"/>
+    <row r="106" s="26" customFormat="1"/>
+    <row r="107" s="26" customFormat="1"/>
+    <row r="108" s="26" customFormat="1"/>
+    <row r="109" s="26" customFormat="1"/>
+    <row r="110" s="26" customFormat="1"/>
+    <row r="111" s="26" customFormat="1"/>
+    <row r="112" s="26" customFormat="1"/>
+    <row r="113" s="26" customFormat="1"/>
+    <row r="114" s="26" customFormat="1"/>
+    <row r="115" s="26" customFormat="1"/>
+    <row r="116" s="26" customFormat="1"/>
+    <row r="117" s="26" customFormat="1"/>
+    <row r="118" s="26" customFormat="1"/>
+    <row r="119" s="26" customFormat="1"/>
+    <row r="120" s="26" customFormat="1"/>
+    <row r="121" s="26" customFormat="1"/>
+    <row r="122" s="26" customFormat="1"/>
+    <row r="123" s="26" customFormat="1"/>
+    <row r="124" s="26" customFormat="1"/>
+    <row r="125" s="26" customFormat="1"/>
+    <row r="126" s="26" customFormat="1"/>
+    <row r="127" s="26" customFormat="1"/>
+    <row r="128" s="26" customFormat="1"/>
+    <row r="129" s="26" customFormat="1"/>
+    <row r="130" s="26" customFormat="1"/>
+    <row r="131" s="26" customFormat="1"/>
+    <row r="132" s="26" customFormat="1"/>
+    <row r="133" s="26" customFormat="1"/>
+    <row r="134" s="26" customFormat="1"/>
+    <row r="135" s="26" customFormat="1"/>
+    <row r="136" s="26" customFormat="1"/>
+    <row r="137" s="26" customFormat="1"/>
+    <row r="138" s="26" customFormat="1"/>
+    <row r="139" s="26" customFormat="1"/>
+    <row r="140" s="26" customFormat="1"/>
+    <row r="141" s="26" customFormat="1"/>
+    <row r="142" s="26" customFormat="1"/>
+    <row r="143" s="26" customFormat="1"/>
+    <row r="144" s="26" customFormat="1"/>
+    <row r="145" s="26" customFormat="1"/>
+    <row r="146" s="26" customFormat="1"/>
+    <row r="147" s="26" customFormat="1"/>
+    <row r="148" s="26" customFormat="1"/>
+    <row r="149" s="26" customFormat="1"/>
+    <row r="150" s="26" customFormat="1"/>
+    <row r="151" s="26" customFormat="1"/>
+    <row r="152" s="26" customFormat="1"/>
+    <row r="153" s="26" customFormat="1"/>
+    <row r="154" s="26" customFormat="1"/>
+    <row r="155" s="26" customFormat="1"/>
+    <row r="156" s="26" customFormat="1"/>
+    <row r="157" s="26" customFormat="1"/>
+    <row r="158" s="26" customFormat="1"/>
+    <row r="159" s="26" customFormat="1"/>
+    <row r="160" s="26" customFormat="1"/>
+    <row r="161" s="26" customFormat="1"/>
+    <row r="162" s="26" customFormat="1"/>
+    <row r="163" s="26" customFormat="1"/>
+    <row r="164" s="26" customFormat="1"/>
+    <row r="165" s="26" customFormat="1"/>
+    <row r="166" s="26" customFormat="1"/>
+    <row r="167" s="26" customFormat="1"/>
+    <row r="168" s="26" customFormat="1"/>
+    <row r="169" s="26" customFormat="1"/>
+    <row r="170" s="26" customFormat="1"/>
+    <row r="171" s="26" customFormat="1"/>
+    <row r="172" s="26" customFormat="1"/>
+    <row r="173" s="26" customFormat="1"/>
+    <row r="174" s="26" customFormat="1"/>
+    <row r="175" s="26" customFormat="1"/>
+    <row r="176" s="26" customFormat="1"/>
+    <row r="177" s="26" customFormat="1"/>
+    <row r="178" s="26" customFormat="1"/>
+    <row r="179" s="26" customFormat="1"/>
+    <row r="180" s="26" customFormat="1"/>
+    <row r="181" s="26" customFormat="1"/>
+    <row r="182" s="26" customFormat="1"/>
+    <row r="183" s="26" customFormat="1"/>
+    <row r="184" s="26" customFormat="1"/>
+    <row r="185" s="26" customFormat="1"/>
+    <row r="186" s="26" customFormat="1"/>
+    <row r="187" s="26" customFormat="1"/>
+    <row r="188" s="26" customFormat="1"/>
+    <row r="189" s="26" customFormat="1"/>
+    <row r="190" s="26" customFormat="1"/>
+    <row r="191" s="26" customFormat="1"/>
+    <row r="192" s="26" customFormat="1"/>
+    <row r="193" s="26" customFormat="1"/>
+    <row r="194" s="26" customFormat="1"/>
+    <row r="195" s="26" customFormat="1"/>
+    <row r="196" s="26" customFormat="1"/>
+    <row r="197" s="26" customFormat="1"/>
+    <row r="198" s="26" customFormat="1"/>
+    <row r="199" s="26" customFormat="1"/>
+    <row r="200" s="26" customFormat="1"/>
+    <row r="201" s="26" customFormat="1"/>
+    <row r="202" s="26" customFormat="1"/>
+    <row r="203" s="26" customFormat="1"/>
+    <row r="204" s="26" customFormat="1"/>
+    <row r="205" s="26" customFormat="1"/>
+    <row r="206" s="26" customFormat="1"/>
+    <row r="207" s="26" customFormat="1"/>
+    <row r="208" s="26" customFormat="1"/>
+    <row r="209" s="26" customFormat="1"/>
+    <row r="210" s="26" customFormat="1"/>
+    <row r="211" s="26" customFormat="1"/>
+    <row r="212" s="26" customFormat="1"/>
+    <row r="213" s="26" customFormat="1"/>
+    <row r="214" s="26" customFormat="1"/>
+    <row r="215" s="26" customFormat="1"/>
+    <row r="216" s="26" customFormat="1"/>
+    <row r="217" s="26" customFormat="1"/>
+    <row r="218" s="26" customFormat="1"/>
+    <row r="219" s="26" customFormat="1"/>
+    <row r="220" s="26" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.17499999999999999" right="0.70866141732283505" top="0.17499999999999999" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape"/>
-  <headerFooter/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="35" max="1048575" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A763045-D939-4730-BDC0-0EC26120B0F4}">
+  <dimension ref="A2:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="82" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="82" customWidth="1"/>
+    <col min="3" max="15" width="8.875" style="82" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="82" customWidth="1"/>
+    <col min="17" max="17" width="8.875" style="82" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="26.25" customHeight="1"/>
+    <row r="4" spans="1:16" ht="6" customHeight="1">
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="18" customFormat="1">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L5:O5"/>
+  </mergeCells>
+  <phoneticPr fontId="76" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:P10"/>
+  <dimension ref="A2:P6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="16" width="1.85546875" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="1" customWidth="1"/>
+    <col min="3" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1"/>
-    <row r="4" ht="6" customHeight="1">
-      <c r="B4" s="179"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
-      <c r="J5" s="164"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="267"/>
-      <c r="P5" s="164" t="s">
+    <row r="2" spans="1:16" ht="26.25" customHeight="1"/>
+    <row r="4" spans="1:16" ht="6" customHeight="1">
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="181" customFormat="1">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="0" t="s">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:16" s="18" customFormat="1">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="L5:O5"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="76" type="noConversion"/>
   <pageMargins left="0.17499999999999999" right="0.17499999999999999" top="0.17499999999999999" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:P6"/>
+  <dimension ref="A2:P6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1" style="164"/>
-    <col min="2" max="2" width="29.140625" customWidth="1" style="164"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1" style="164"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1" style="164"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1" style="164"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1" style="164"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1" style="164"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1" style="164"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1" style="164"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1" style="164"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1" style="164"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1" style="164"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1" style="164"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1" style="164"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1" style="164"/>
-    <col min="16" max="16" width="1.85546875" customWidth="1" style="164"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1" style="164"/>
-    <col min="18" max="16384" width="9.140625" customWidth="1" style="164"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="1" customWidth="1"/>
+    <col min="3" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1"/>
-    <row r="4" ht="6" customHeight="1">
-      <c r="B4" s="179"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="267"/>
-      <c r="P5" s="164" t="s">
+    <row r="2" spans="1:16" ht="26.25" customHeight="1"/>
+    <row r="4" spans="1:16" ht="6" customHeight="1">
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="181" customFormat="1">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
+    <row r="6" spans="1:16" s="18" customFormat="1">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="L5:O5"/>
   </mergeCells>
+  <phoneticPr fontId="76" type="noConversion"/>
   <pageMargins left="0.17499999999999999" right="0.17499999999999999" top="0.17499999999999999" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:P6"/>
+  <dimension ref="A2:P6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1" style="164"/>
-    <col min="2" max="2" width="29.140625" customWidth="1" style="164"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1" style="164"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1" style="164"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1" style="164"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1" style="164"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1" style="164"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1" style="164"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1" style="164"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1" style="164"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1" style="164"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1" style="164"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1" style="164"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1" style="164"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1" style="164"/>
-    <col min="16" max="16" width="1.85546875" customWidth="1" style="164"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1" style="164"/>
-    <col min="18" max="16384" width="9.140625" customWidth="1" style="164"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="1" customWidth="1"/>
+    <col min="3" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1"/>
-    <row r="4" ht="6" customHeight="1">
-      <c r="B4" s="179"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="267"/>
-      <c r="P5" s="164" t="s">
+    <row r="2" spans="1:16" ht="26.25" customHeight="1"/>
+    <row r="4" spans="1:16" ht="6" customHeight="1">
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="181" customFormat="1">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
+    <row r="6" spans="1:16" s="18" customFormat="1">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="L5:O5"/>
   </mergeCells>
+  <phoneticPr fontId="76" type="noConversion"/>
   <pageMargins left="0.17499999999999999" right="0.17499999999999999" top="0.17499999999999999" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:P6"/>
+  <dimension ref="A2:P6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1" style="164"/>
-    <col min="2" max="2" width="29.140625" customWidth="1" style="164"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1" style="164"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1" style="164"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1" style="164"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1" style="164"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1" style="164"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1" style="164"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1" style="164"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1" style="164"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1" style="164"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1" style="164"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1" style="164"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1" style="164"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1" style="164"/>
-    <col min="16" max="16" width="1.85546875" customWidth="1" style="164"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1" style="164"/>
-    <col min="18" max="16384" width="9.140625" customWidth="1" style="164"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="1" customWidth="1"/>
+    <col min="3" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1"/>
-    <row r="4" ht="6" customHeight="1">
-      <c r="B4" s="179"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="267"/>
-      <c r="P5" s="164" t="s">
+    <row r="2" spans="1:16" ht="26.25" customHeight="1"/>
+    <row r="4" spans="1:16" ht="6" customHeight="1">
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="181" customFormat="1">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
+    <row r="6" spans="1:16" s="18" customFormat="1">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="L5:O5"/>
   </mergeCells>
+  <phoneticPr fontId="76" type="noConversion"/>
   <pageMargins left="0.17499999999999999" right="0.17499999999999999" top="0.17499999999999999" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A4:P6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="102" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1" style="164"/>
-    <col min="2" max="2" width="29.140625" customWidth="1" style="164"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1" style="164"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1" style="164"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1" style="164"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1" style="164"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1" style="164"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1" style="164"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1" style="164"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1" style="164"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1" style="164"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1" style="164"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1" style="164"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1" style="164"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1" style="164"/>
-    <col min="16" max="16" width="1.85546875" customWidth="1" style="164"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1" style="164"/>
-    <col min="18" max="16384" width="9.140625" customWidth="1" style="164"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="26.25" customHeight="1"/>
-    <row r="4" ht="6" customHeight="1">
-      <c r="B4" s="179"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="267"/>
-      <c r="P5" s="164" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="181" customFormat="1">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="L5:O5"/>
-  </mergeCells>
-  <pageMargins left="0.17499999999999999" right="0.17499999999999999" top="0.17499999999999999" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape"/>
-  <headerFooter>
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:O43"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="14" width="7.875" customWidth="1"/>
+    <col min="15" max="15" width="6.75" customWidth="1"/>
+    <col min="16" max="16" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="164" customFormat="1"/>
-    <row r="2" s="164" customFormat="1"/>
-    <row r="3" s="164" customFormat="1"/>
-    <row r="5" s="164" customFormat="1">
-      <c r="B5" s="167" t="s">
+    <row r="1" spans="2:15" s="1" customFormat="1"/>
+    <row r="2" spans="2:15" s="1" customFormat="1"/>
+    <row r="3" spans="2:15" s="1" customFormat="1"/>
+    <row r="5" spans="2:15" s="1" customFormat="1">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="169"/>
-    </row>
-    <row r="6" s="164" customFormat="1">
-      <c r="B6" s="172" t="s">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" s="1" customFormat="1">
+      <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="169"/>
-    </row>
-    <row r="7" ht="27.75" customHeight="1" s="164" customFormat="1">
-      <c r="B7" s="175" t="s">
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" s="1" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="268" t="s">
+      <c r="D7" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="268"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="268"/>
-      <c r="K7" s="268"/>
-      <c r="L7" s="268"/>
-      <c r="M7" s="268"/>
-      <c r="N7" s="268"/>
-      <c r="O7" s="177"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" s="164" customFormat="1">
-      <c r="B8" s="175" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="2:15" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="268" t="s">
+      <c r="D8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="268"/>
-      <c r="H8" s="268"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="268"/>
-      <c r="K8" s="268"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="268"/>
-      <c r="O8" s="178"/>
-    </row>
-    <row r="9" s="164" customFormat="1">
-      <c r="B9" s="168" t="s">
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="2:15" s="1" customFormat="1" ht="15">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="164" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="173"/>
-    </row>
-    <row r="10" s="164" customFormat="1">
-      <c r="B10" s="168" t="s">
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="2:15" s="1" customFormat="1" ht="15">
+      <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="173"/>
-    </row>
-    <row r="11" s="164" customFormat="1">
-      <c r="B11" s="168" t="s">
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="2:15" s="1" customFormat="1" ht="15">
+      <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="173"/>
-    </row>
-    <row r="12" s="164" customFormat="1">
-      <c r="B12" s="168" t="s">
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="2:15" s="1" customFormat="1" ht="15">
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="173"/>
-    </row>
-    <row r="13" s="164" customFormat="1">
-      <c r="B13" s="168" t="s">
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="15">
+      <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="164" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="173"/>
-    </row>
-    <row r="14" s="164" customFormat="1">
-      <c r="B14" s="168" t="s">
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="2:15" s="1" customFormat="1" ht="15">
+      <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="173"/>
-    </row>
-    <row r="15" ht="33" customHeight="1" s="164" customFormat="1">
-      <c r="B15" s="196" t="s">
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="2:15" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="B15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="268" t="s">
+      <c r="D15" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="268"/>
-      <c r="F15" s="268"/>
-      <c r="G15" s="268"/>
-      <c r="H15" s="268"/>
-      <c r="I15" s="268"/>
-      <c r="J15" s="268"/>
-      <c r="K15" s="268"/>
-      <c r="L15" s="268"/>
-      <c r="M15" s="268"/>
-      <c r="N15" s="268"/>
-      <c r="O15" s="268"/>
-    </row>
-    <row r="16" s="164" customFormat="1">
-      <c r="B16" s="168"/>
-      <c r="M16" s="173"/>
-    </row>
-    <row r="17" s="164" customFormat="1">
-      <c r="B17" s="168"/>
-      <c r="M17" s="173"/>
-    </row>
-    <row r="18" s="164" customFormat="1">
-      <c r="B18" s="168"/>
-      <c r="M18" s="173"/>
-    </row>
-    <row r="19" s="197" customFormat="1">
-      <c r="A19" s="197">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="B19" s="182">
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+    </row>
+    <row r="16" spans="2:15" s="1" customFormat="1" ht="15">
+      <c r="B16" s="5"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B17" s="5"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B18" s="5"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" s="34" customFormat="1" ht="15">
+      <c r="A19" s="34">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B19" s="19">
         <v>0.25</v>
       </c>
-      <c r="C19" s="197">
+      <c r="C19" s="34">
         <v>0.5</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="34">
         <v>0.75</v>
       </c>
-      <c r="E19" s="197">
+      <c r="E19" s="34">
         <v>1</v>
       </c>
-      <c r="F19" s="197">
+      <c r="F19" s="34">
         <v>2</v>
       </c>
-      <c r="G19" s="197">
+      <c r="G19" s="34">
         <v>3</v>
       </c>
-      <c r="H19" s="197">
+      <c r="H19" s="34">
         <v>5</v>
       </c>
-      <c r="I19" s="197">
+      <c r="I19" s="34">
         <v>7</v>
       </c>
-      <c r="J19" s="197">
+      <c r="J19" s="34">
         <v>10</v>
       </c>
-      <c r="K19" s="197">
+      <c r="K19" s="34">
         <v>15</v>
       </c>
-      <c r="L19" s="197">
+      <c r="L19" s="34">
         <v>20</v>
       </c>
-      <c r="M19" s="239">
+      <c r="M19" s="76">
         <v>30</v>
       </c>
     </row>
-    <row r="20" s="197" customFormat="1">
-      <c r="A20" s="197">
+    <row r="20" spans="1:13" s="34" customFormat="1">
+      <c r="A20" s="34">
         <v>0</v>
       </c>
-      <c r="B20" s="197">
+      <c r="B20" s="34">
         <v>0</v>
       </c>
-      <c r="C20" s="197">
+      <c r="C20" s="34">
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="34">
         <v>0</v>
       </c>
-      <c r="E20" s="197">
+      <c r="E20" s="34">
         <v>0</v>
       </c>
-      <c r="F20" s="197">
+      <c r="F20" s="34">
         <v>0</v>
       </c>
-      <c r="G20" s="197">
+      <c r="G20" s="34">
         <v>0</v>
       </c>
-      <c r="H20" s="197">
+      <c r="H20" s="34">
         <v>0</v>
       </c>
-      <c r="I20" s="197">
+      <c r="I20" s="34">
         <v>0</v>
       </c>
-      <c r="J20" s="197">
+      <c r="J20" s="34">
         <v>0</v>
       </c>
-      <c r="K20" s="197">
+      <c r="K20" s="34">
         <v>0</v>
       </c>
-      <c r="L20" s="197">
+      <c r="L20" s="34">
         <v>0</v>
       </c>
-      <c r="M20" s="197">
+      <c r="M20" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="164" customFormat="1">
-      <c r="B21" s="168"/>
-      <c r="M21" s="173"/>
-    </row>
-    <row r="22" s="164" customFormat="1">
-      <c r="B22" s="168"/>
-      <c r="M22" s="173"/>
-    </row>
-    <row r="23" s="164" customFormat="1">
-      <c r="B23" s="168"/>
-      <c r="M23" s="173"/>
-    </row>
-    <row r="24" s="164" customFormat="1">
-      <c r="B24" s="168"/>
-      <c r="M24" s="173"/>
-    </row>
-    <row r="25" s="164" customFormat="1">
-      <c r="B25" s="168"/>
-      <c r="M25" s="173"/>
-    </row>
-    <row r="26" s="164" customFormat="1">
-      <c r="B26" s="168"/>
-      <c r="M26" s="173"/>
-    </row>
-    <row r="27" s="164" customFormat="1">
-      <c r="B27" s="168"/>
-      <c r="M27" s="173"/>
-    </row>
-    <row r="28" s="164" customFormat="1">
-      <c r="B28" s="168"/>
-      <c r="M28" s="173"/>
-    </row>
-    <row r="29" s="164" customFormat="1">
-      <c r="B29" s="168"/>
-      <c r="M29" s="173"/>
-    </row>
-    <row r="30" s="166" customFormat="1">
-      <c r="M30" s="170"/>
-    </row>
-    <row r="31" s="166" customFormat="1">
-      <c r="M31" s="170"/>
-    </row>
-    <row r="32" s="164" customFormat="1">
-      <c r="B32" s="174"/>
-      <c r="E32" s="165"/>
-      <c r="M32" s="173"/>
-    </row>
-    <row r="33" s="164" customFormat="1">
-      <c r="B33" s="176"/>
-      <c r="E33" s="165"/>
-      <c r="M33" s="173"/>
-    </row>
-    <row r="34" s="172" customFormat="1">
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-    </row>
-    <row r="35" s="164" customFormat="1">
-      <c r="B35" s="167" t="s">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B21" s="5"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B22" s="5"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B23" s="5"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B24" s="5"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B25" s="5"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B26" s="5"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B27" s="5"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B28" s="5"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B29" s="5"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" s="3" customFormat="1" ht="15">
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="15">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="15">
+      <c r="B32" s="11"/>
+      <c r="E32" s="2"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="2:15" s="1" customFormat="1" ht="15">
+      <c r="B33" s="13"/>
+      <c r="E33" s="2"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="2:15" s="9" customFormat="1">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:15" s="1" customFormat="1">
+      <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" s="164" customFormat="1">
-      <c r="B36" s="164" t="s">
+    <row r="36" spans="2:15" s="1" customFormat="1">
+      <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" s="164" customFormat="1">
-      <c r="B37" s="164" t="s">
+    <row r="37" spans="2:15" s="1" customFormat="1">
+      <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" s="164" customFormat="1">
-      <c r="B38" s="164" t="s">
+    <row r="38" spans="2:15" s="1" customFormat="1">
+      <c r="B38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="165"/>
-      <c r="L38" s="169"/>
-      <c r="O38" s="171"/>
-    </row>
-    <row r="40" s="164" customFormat="1"/>
-    <row r="41" ht="15.75">
-      <c r="B41" s="188"/>
-    </row>
-    <row r="43" ht="32.25" customHeight="1">
-      <c r="B43" s="269"/>
-      <c r="C43" s="269"/>
-      <c r="D43" s="269"/>
-      <c r="E43" s="269"/>
-      <c r="F43" s="269"/>
-      <c r="G43" s="269"/>
-      <c r="H43" s="269"/>
-      <c r="I43" s="269"/>
-      <c r="J43" s="269"/>
-      <c r="K43" s="269"/>
-      <c r="L43" s="269"/>
-      <c r="M43" s="269"/>
-      <c r="N43" s="269"/>
-      <c r="O43" s="269"/>
+      <c r="D38" s="2"/>
+      <c r="L38" s="6"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="40" spans="2:15" s="1" customFormat="1"/>
+    <row r="41" spans="2:15" ht="15.75">
+      <c r="B41" s="25"/>
+    </row>
+    <row r="43" spans="2:15" ht="32.25" customHeight="1">
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="106"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="4">
     <mergeCell ref="D7:N7"/>
     <mergeCell ref="D8:N8"/>
     <mergeCell ref="D15:O15"/>
@@ -7019,85 +7170,84 @@
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:O4"/>
+  <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1" style="164"/>
-    <col min="2" max="2" width="39" customWidth="1" style="164"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" style="193"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" style="194"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1" style="193"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1" style="195"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1" style="194"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1" style="194"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1" style="195"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1" style="195"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1" style="193"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1" style="193"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1" style="193"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1" style="193"/>
-    <col min="15" max="15" width="29.85546875" customWidth="1" style="240"/>
-    <col min="16" max="16" width="4" customWidth="1" style="164"/>
-    <col min="17" max="16384" width="9.140625" customWidth="1" style="164"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="30" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="31" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="30" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="32" customWidth="1"/>
+    <col min="7" max="8" width="10.75" style="31" customWidth="1"/>
+    <col min="9" max="10" width="8.75" style="32" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="30" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="30" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="30" customWidth="1"/>
+    <col min="15" max="15" width="29.875" style="77" customWidth="1"/>
+    <col min="16" max="16" width="4" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18" customHeight="1"/>
-    <row r="3" ht="22.5" customHeight="1"/>
-    <row r="4" ht="44.25" customHeight="1">
-      <c r="B4" s="190" t="s">
+    <row r="2" spans="2:15" ht="18" customHeight="1"/>
+    <row r="3" spans="2:15" ht="22.5" customHeight="1"/>
+    <row r="4" spans="2:15" ht="44.25" customHeight="1">
+      <c r="B4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="190" t="s">
+      <c r="D4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="192" t="s">
+      <c r="E4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="191" t="s">
+      <c r="F4" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="190" t="s">
+      <c r="G4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="190" t="s">
+      <c r="H4" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="191" t="s">
+      <c r="I4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="191" t="s">
+      <c r="J4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="192" t="s">
+      <c r="K4" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="192" t="s">
+      <c r="L4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="192" t="s">
+      <c r="M4" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="192" t="s">
+      <c r="N4" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="241" t="s">
+      <c r="O4" s="78" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7105,159 +7255,151 @@
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:AA12"/>
+  <dimension ref="B3:AA12"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1" style="245"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1" style="245"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1" style="243"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1" style="243"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1" style="244"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1" style="245"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1" style="245"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1" style="246"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1" style="245"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1" style="244"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1" style="244"/>
-    <col min="12" max="12" width="8.28515625" customWidth="1" style="244"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1" style="247"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1" style="243"/>
-    <col min="15" max="15" width="8.28515625" customWidth="1" style="248"/>
-    <col min="16" max="16" width="9.7109375" customWidth="1" style="245"/>
-    <col min="17" max="17" width="9.7109375" customWidth="1" style="245"/>
-    <col min="18" max="18" width="9.7109375" customWidth="1" style="245"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1" style="245"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1" style="245"/>
-    <col min="21" max="21" width="9.7109375" customWidth="1" style="245"/>
-    <col min="22" max="22" width="9.28515625" customWidth="1" style="248"/>
-    <col min="23" max="23" width="9.28515625" customWidth="1" style="248"/>
-    <col min="24" max="24" width="10.7109375" customWidth="1" style="245"/>
-    <col min="25" max="25" width="9.28515625" customWidth="1" style="245"/>
-    <col min="26" max="26" hidden="1" width="9.28515625" customWidth="1" style="245"/>
-    <col min="27" max="27" hidden="1" width="10.140625" customWidth="1" style="245"/>
-    <col min="28" max="28" width="2.42578125" customWidth="1" style="245"/>
-    <col min="29" max="16384" width="10.85546875" customWidth="1" style="245"/>
+    <col min="1" max="1" width="3" style="82" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="82" customWidth="1"/>
+    <col min="3" max="4" width="9.25" style="80" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="81" customWidth="1"/>
+    <col min="6" max="7" width="10.75" style="82" customWidth="1"/>
+    <col min="8" max="8" width="7.25" style="83" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="82" customWidth="1"/>
+    <col min="10" max="12" width="8.25" style="81" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="84" customWidth="1"/>
+    <col min="14" max="14" width="8.25" style="80" customWidth="1"/>
+    <col min="15" max="15" width="8.25" style="85" customWidth="1"/>
+    <col min="16" max="18" width="9.75" style="82" customWidth="1"/>
+    <col min="19" max="20" width="10.75" style="82" customWidth="1"/>
+    <col min="21" max="21" width="9.75" style="82" customWidth="1"/>
+    <col min="22" max="23" width="9.25" style="85" customWidth="1"/>
+    <col min="24" max="24" width="10.75" style="82" customWidth="1"/>
+    <col min="25" max="25" width="9.25" style="82" customWidth="1"/>
+    <col min="26" max="26" width="9.25" style="82" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="10.125" style="82" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="2.375" style="82" customWidth="1"/>
+    <col min="29" max="29" width="10.875" style="82" customWidth="1"/>
+    <col min="30" max="16384" width="10.875" style="82"/>
   </cols>
   <sheetData>
-    <row r="3" ht="33" customHeight="1"/>
-    <row r="4" ht="48" customHeight="1" s="249" customFormat="1">
-      <c r="B4" s="250" t="s">
+    <row r="3" spans="2:27" ht="33" customHeight="1"/>
+    <row r="4" spans="2:27" s="86" customFormat="1" ht="48" customHeight="1">
+      <c r="B4" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="251" t="s">
+      <c r="C4" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="252" t="s">
+      <c r="E4" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="250" t="s">
+      <c r="F4" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="250" t="s">
+      <c r="G4" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="253" t="s">
+      <c r="H4" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="250" t="s">
+      <c r="I4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="252" t="s">
+      <c r="J4" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="252" t="s">
+      <c r="K4" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="252" t="s">
+      <c r="L4" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="250" t="s">
+      <c r="M4" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="251" t="s">
+      <c r="N4" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="254" t="s">
+      <c r="O4" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="250" t="s">
+      <c r="P4" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="250" t="s">
+      <c r="Q4" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="250" t="s">
+      <c r="R4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="250" t="s">
+      <c r="S4" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="250" t="s">
+      <c r="T4" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="U4" s="250" t="s">
+      <c r="U4" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="254" t="s">
+      <c r="V4" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="254" t="s">
+      <c r="W4" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="250" t="s">
+      <c r="X4" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="Y4" s="250" t="s">
+      <c r="Y4" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="Z4" s="256" t="s">
+      <c r="Z4" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="256" t="s">
+      <c r="AA4" s="93" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="I5" s="242"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="242"/>
-      <c r="C8" s="255"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="242"/>
-      <c r="C12" s="255"/>
+    <row r="5" spans="2:27">
+      <c r="B5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="I5" s="79"/>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="79"/>
+      <c r="C8" s="92"/>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12" s="79"/>
+      <c r="C12" s="92"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="76" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Fixed,Adjustable"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>